--- a/storage/app/public/public/transfer_organizations_payments.xlsx
+++ b/storage/app/public/public/transfer_organizations_payments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladislav.samsonov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/result/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DFC8FF-F460-436A-B9CB-54CB96A2A193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A070F960-FA92-9840-AB27-5E65C318F217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Организации" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1464">
   <si>
     <t>ООО "Строй Техно Инженеринг"</t>
   </si>
@@ -4425,6 +4425,9 @@
   </si>
   <si>
     <t>ООО ОКТАФАРМА-ФАРМИМЭКС</t>
+  </si>
+  <si>
+    <t>ООО "СТРОЙ ТЕХНОИНЖЕНЕРИНГ"</t>
   </si>
 </sst>
 </file>
@@ -4751,19 +4754,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B963"/>
+  <dimension ref="A1:B964"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A940" workbookViewId="0">
-      <selection activeCell="A963" sqref="A963"/>
+      <selection activeCell="A955" sqref="A955"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="1" max="1" width="56.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>863</v>
       </c>
@@ -4771,7 +4774,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>877</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -4787,7 +4790,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>879</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -4811,7 +4814,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -4819,7 +4822,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>881</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>883</v>
       </c>
@@ -4835,7 +4838,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>60</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>61</v>
       </c>
@@ -4851,7 +4854,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>66</v>
       </c>
@@ -4859,7 +4862,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>68</v>
       </c>
@@ -4867,7 +4870,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>885</v>
       </c>
@@ -4875,7 +4878,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>887</v>
       </c>
@@ -4891,7 +4894,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>84</v>
       </c>
@@ -4907,7 +4910,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>88</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>89</v>
       </c>
@@ -4923,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>97</v>
       </c>
@@ -4955,7 +4958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>889</v>
       </c>
@@ -4963,7 +4966,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>891</v>
       </c>
@@ -4971,7 +4974,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>100</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>103</v>
       </c>
@@ -4987,7 +4990,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>105</v>
       </c>
@@ -4995,7 +4998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>1433</v>
       </c>
@@ -5003,7 +5006,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>893</v>
       </c>
@@ -5011,7 +5014,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>895</v>
       </c>
@@ -5019,7 +5022,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>106</v>
       </c>
@@ -5027,7 +5030,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>107</v>
       </c>
@@ -5035,7 +5038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>897</v>
       </c>
@@ -5043,7 +5046,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>115</v>
       </c>
@@ -5051,7 +5054,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>120</v>
       </c>
@@ -5059,7 +5062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>898</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>127</v>
       </c>
@@ -5075,7 +5078,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>128</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>130</v>
       </c>
@@ -5091,7 +5094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>131</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>133</v>
       </c>
@@ -5107,7 +5110,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>134</v>
       </c>
@@ -5115,7 +5118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>141</v>
       </c>
@@ -5123,7 +5126,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>142</v>
       </c>
@@ -5131,7 +5134,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>143</v>
       </c>
@@ -5139,7 +5142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>144</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>145</v>
       </c>
@@ -5155,7 +5158,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>900</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>155</v>
       </c>
@@ -5171,7 +5174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>161</v>
       </c>
@@ -5179,7 +5182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>162</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>163</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>170</v>
       </c>
@@ -5203,7 +5206,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>174</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>175</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>902</v>
       </c>
@@ -5227,7 +5230,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>904</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>179</v>
       </c>
@@ -5243,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>906</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>184</v>
       </c>
@@ -5259,7 +5262,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>908</v>
       </c>
@@ -5267,7 +5270,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>910</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>912</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>187</v>
       </c>
@@ -5291,7 +5294,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>188</v>
       </c>
@@ -5299,7 +5302,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>914</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>191</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>916</v>
       </c>
@@ -5323,7 +5326,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>192</v>
       </c>
@@ -5331,7 +5334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>918</v>
       </c>
@@ -5339,7 +5342,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>193</v>
       </c>
@@ -5347,7 +5350,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>194</v>
       </c>
@@ -5355,7 +5358,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>195</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>196</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>197</v>
       </c>
@@ -5379,7 +5382,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>919</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>198</v>
       </c>
@@ -5395,7 +5398,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>199</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>200</v>
       </c>
@@ -5411,7 +5414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>201</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>202</v>
       </c>
@@ -5427,7 +5430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>920</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>922</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>203</v>
       </c>
@@ -5451,7 +5454,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>924</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>204</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>205</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>206</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>925</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>207</v>
       </c>
@@ -5499,7 +5502,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>208</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>209</v>
       </c>
@@ -5515,7 +5518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>210</v>
       </c>
@@ -5523,7 +5526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>211</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>212</v>
       </c>
@@ -5539,7 +5542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>213</v>
       </c>
@@ -5547,7 +5550,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>926</v>
       </c>
@@ -5555,7 +5558,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>928</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>929</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>214</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>215</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>216</v>
       </c>
@@ -5595,7 +5598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>931</v>
       </c>
@@ -5603,7 +5606,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>217</v>
       </c>
@@ -5611,7 +5614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>933</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>218</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>219</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>935</v>
       </c>
@@ -5643,7 +5646,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>220</v>
       </c>
@@ -5651,7 +5654,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>937</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>221</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>939</v>
       </c>
@@ -5675,7 +5678,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>941</v>
       </c>
@@ -5683,7 +5686,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>943</v>
       </c>
@@ -5691,7 +5694,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>223</v>
       </c>
@@ -5699,7 +5702,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>945</v>
       </c>
@@ -5707,7 +5710,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>947</v>
       </c>
@@ -5715,7 +5718,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>224</v>
       </c>
@@ -5723,7 +5726,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>225</v>
       </c>
@@ -5731,7 +5734,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>226</v>
       </c>
@@ -5739,7 +5742,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>227</v>
       </c>
@@ -5747,7 +5750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>228</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>229</v>
       </c>
@@ -5763,7 +5766,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>949</v>
       </c>
@@ -5771,7 +5774,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>230</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>951</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>952</v>
       </c>
@@ -5795,7 +5798,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>954</v>
       </c>
@@ -5803,7 +5806,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>956</v>
       </c>
@@ -5811,7 +5814,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>231</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>232</v>
       </c>
@@ -5827,7 +5830,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>233</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>234</v>
       </c>
@@ -5843,7 +5846,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>235</v>
       </c>
@@ -5851,7 +5854,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>236</v>
       </c>
@@ -5859,7 +5862,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>237</v>
       </c>
@@ -5867,7 +5870,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>238</v>
       </c>
@@ -5875,7 +5878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>239</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>240</v>
       </c>
@@ -5891,7 +5894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>241</v>
       </c>
@@ -5899,7 +5902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>958</v>
       </c>
@@ -5907,7 +5910,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>242</v>
       </c>
@@ -5915,7 +5918,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>243</v>
       </c>
@@ -5923,7 +5926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>959</v>
       </c>
@@ -5931,7 +5934,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>244</v>
       </c>
@@ -5939,7 +5942,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>961</v>
       </c>
@@ -5947,7 +5950,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>963</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>246</v>
       </c>
@@ -5963,7 +5966,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>964</v>
       </c>
@@ -5971,7 +5974,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>247</v>
       </c>
@@ -5979,7 +5982,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>965</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>966</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>967</v>
       </c>
@@ -6003,7 +6006,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>968</v>
       </c>
@@ -6011,7 +6014,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>248</v>
       </c>
@@ -6019,7 +6022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>249</v>
       </c>
@@ -6027,7 +6030,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>250</v>
       </c>
@@ -6035,7 +6038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>251</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>252</v>
       </c>
@@ -6051,7 +6054,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>970</v>
       </c>
@@ -6059,7 +6062,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>971</v>
       </c>
@@ -6067,7 +6070,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>253</v>
       </c>
@@ -6075,7 +6078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>972</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>973</v>
       </c>
@@ -6091,7 +6094,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>254</v>
       </c>
@@ -6099,7 +6102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>255</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>256</v>
       </c>
@@ -6115,7 +6118,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>257</v>
       </c>
@@ -6123,7 +6126,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>258</v>
       </c>
@@ -6131,7 +6134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>259</v>
       </c>
@@ -6139,7 +6142,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>974</v>
       </c>
@@ -6147,7 +6150,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>260</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>262</v>
       </c>
@@ -6163,7 +6166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>975</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>263</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>976</v>
       </c>
@@ -6187,7 +6190,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>977</v>
       </c>
@@ -6195,7 +6198,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>264</v>
       </c>
@@ -6203,7 +6206,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>265</v>
       </c>
@@ -6211,7 +6214,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>266</v>
       </c>
@@ -6219,7 +6222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>267</v>
       </c>
@@ -6227,7 +6230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>979</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>268</v>
       </c>
@@ -6243,7 +6246,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>269</v>
       </c>
@@ -6251,7 +6254,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>270</v>
       </c>
@@ -6259,7 +6262,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>271</v>
       </c>
@@ -6267,7 +6270,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>272</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>273</v>
       </c>
@@ -6283,7 +6286,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>1434</v>
       </c>
@@ -6291,7 +6294,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>274</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>275</v>
       </c>
@@ -6307,7 +6310,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>981</v>
       </c>
@@ -6315,7 +6318,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>982</v>
       </c>
@@ -6323,7 +6326,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>984</v>
       </c>
@@ -6331,7 +6334,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>277</v>
       </c>
@@ -6339,7 +6342,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>278</v>
       </c>
@@ -6347,7 +6350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>279</v>
       </c>
@@ -6355,7 +6358,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>986</v>
       </c>
@@ -6363,7 +6366,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>280</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>281</v>
       </c>
@@ -6379,7 +6382,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>282</v>
       </c>
@@ -6387,7 +6390,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>283</v>
       </c>
@@ -6395,7 +6398,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>289</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>290</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>988</v>
       </c>
@@ -6419,7 +6422,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>291</v>
       </c>
@@ -6427,7 +6430,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>292</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>293</v>
       </c>
@@ -6443,7 +6446,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>294</v>
       </c>
@@ -6451,7 +6454,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>295</v>
       </c>
@@ -6459,7 +6462,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>296</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>297</v>
       </c>
@@ -6475,7 +6478,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>990</v>
       </c>
@@ -6483,7 +6486,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>992</v>
       </c>
@@ -6491,7 +6494,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>298</v>
       </c>
@@ -6499,7 +6502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>299</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>300</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>301</v>
       </c>
@@ -6523,7 +6526,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>302</v>
       </c>
@@ -6531,7 +6534,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>303</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>304</v>
       </c>
@@ -6547,7 +6550,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>305</v>
       </c>
@@ -6555,7 +6558,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>306</v>
       </c>
@@ -6563,7 +6566,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>993</v>
       </c>
@@ -6571,7 +6574,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>307</v>
       </c>
@@ -6579,7 +6582,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>308</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>309</v>
       </c>
@@ -6595,7 +6598,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>311</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>314</v>
       </c>
@@ -6611,7 +6614,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>315</v>
       </c>
@@ -6619,7 +6622,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>995</v>
       </c>
@@ -6627,7 +6630,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>997</v>
       </c>
@@ -6635,7 +6638,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>316</v>
       </c>
@@ -6643,7 +6646,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>317</v>
       </c>
@@ -6651,7 +6654,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>318</v>
       </c>
@@ -6659,7 +6662,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>319</v>
       </c>
@@ -6667,7 +6670,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>320</v>
       </c>
@@ -6675,7 +6678,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>321</v>
       </c>
@@ -6683,7 +6686,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>322</v>
       </c>
@@ -6691,7 +6694,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>323</v>
       </c>
@@ -6699,7 +6702,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>324</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>325</v>
       </c>
@@ -6715,7 +6718,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>326</v>
       </c>
@@ -6723,7 +6726,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>328</v>
       </c>
@@ -6731,7 +6734,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>999</v>
       </c>
@@ -6739,7 +6742,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>329</v>
       </c>
@@ -6747,7 +6750,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>330</v>
       </c>
@@ -6755,7 +6758,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>1001</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>331</v>
       </c>
@@ -6771,7 +6774,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>1003</v>
       </c>
@@ -6779,7 +6782,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>1005</v>
       </c>
@@ -6787,7 +6790,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>332</v>
       </c>
@@ -6795,7 +6798,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>1007</v>
       </c>
@@ -6803,7 +6806,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>333</v>
       </c>
@@ -6811,7 +6814,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>335</v>
       </c>
@@ -6819,7 +6822,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>336</v>
       </c>
@@ -6827,7 +6830,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>337</v>
       </c>
@@ -6835,7 +6838,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>1009</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>338</v>
       </c>
@@ -6851,7 +6854,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>1010</v>
       </c>
@@ -6859,7 +6862,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>339</v>
       </c>
@@ -6867,7 +6870,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>1011</v>
       </c>
@@ -6875,7 +6878,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>340</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>1013</v>
       </c>
@@ -6891,7 +6894,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>1014</v>
       </c>
@@ -6899,7 +6902,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>342</v>
       </c>
@@ -6907,7 +6910,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>343</v>
       </c>
@@ -6915,7 +6918,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>344</v>
       </c>
@@ -6923,7 +6926,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>345</v>
       </c>
@@ -6931,7 +6934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>1016</v>
       </c>
@@ -6939,7 +6942,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>346</v>
       </c>
@@ -6947,7 +6950,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>347</v>
       </c>
@@ -6955,7 +6958,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>348</v>
       </c>
@@ -6963,7 +6966,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>349</v>
       </c>
@@ -6971,7 +6974,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>350</v>
       </c>
@@ -6979,7 +6982,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>1018</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>1020</v>
       </c>
@@ -6995,7 +6998,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>1022</v>
       </c>
@@ -7003,7 +7006,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>351</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>1024</v>
       </c>
@@ -7019,7 +7022,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>353</v>
       </c>
@@ -7027,7 +7030,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>356</v>
       </c>
@@ -7035,7 +7038,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>358</v>
       </c>
@@ -7043,7 +7046,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>359</v>
       </c>
@@ -7051,7 +7054,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>362</v>
       </c>
@@ -7059,7 +7062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>363</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>1026</v>
       </c>
@@ -7075,7 +7078,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>365</v>
       </c>
@@ -7083,7 +7086,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>366</v>
       </c>
@@ -7091,7 +7094,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>367</v>
       </c>
@@ -7099,7 +7102,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>368</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>369</v>
       </c>
@@ -7115,7 +7118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>370</v>
       </c>
@@ -7123,7 +7126,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>1028</v>
       </c>
@@ -7131,7 +7134,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>1030</v>
       </c>
@@ -7139,7 +7142,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>1032</v>
       </c>
@@ -7147,7 +7150,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>1034</v>
       </c>
@@ -7155,7 +7158,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>371</v>
       </c>
@@ -7163,7 +7166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>374</v>
       </c>
@@ -7171,7 +7174,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>1431</v>
       </c>
@@ -7179,7 +7182,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>1432</v>
       </c>
@@ -7187,7 +7190,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>1036</v>
       </c>
@@ -7195,7 +7198,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>1038</v>
       </c>
@@ -7203,7 +7206,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>380</v>
       </c>
@@ -7211,7 +7214,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>381</v>
       </c>
@@ -7219,7 +7222,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>1040</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>382</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>383</v>
       </c>
@@ -7243,7 +7246,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>386</v>
       </c>
@@ -7251,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>387</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>389</v>
       </c>
@@ -7267,7 +7270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>390</v>
       </c>
@@ -7275,7 +7278,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>391</v>
       </c>
@@ -7283,7 +7286,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>392</v>
       </c>
@@ -7291,7 +7294,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>1042</v>
       </c>
@@ -7299,7 +7302,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>394</v>
       </c>
@@ -7307,7 +7310,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>395</v>
       </c>
@@ -7315,7 +7318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>396</v>
       </c>
@@ -7323,7 +7326,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>397</v>
       </c>
@@ -7331,7 +7334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>1044</v>
       </c>
@@ -7339,7 +7342,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>1046</v>
       </c>
@@ -7347,7 +7350,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>398</v>
       </c>
@@ -7355,7 +7358,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>1048</v>
       </c>
@@ -7363,7 +7366,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>399</v>
       </c>
@@ -7371,7 +7374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>1050</v>
       </c>
@@ -7379,7 +7382,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>400</v>
       </c>
@@ -7387,7 +7390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>1051</v>
       </c>
@@ -7395,7 +7398,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>1053</v>
       </c>
@@ -7403,7 +7406,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>401</v>
       </c>
@@ -7411,7 +7414,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>402</v>
       </c>
@@ -7419,7 +7422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>1055</v>
       </c>
@@ -7427,7 +7430,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>408</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>1056</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>410</v>
       </c>
@@ -7451,7 +7454,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>411</v>
       </c>
@@ -7459,7 +7462,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>412</v>
       </c>
@@ -7467,7 +7470,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>413</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>1058</v>
       </c>
@@ -7483,7 +7486,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>1060</v>
       </c>
@@ -7491,7 +7494,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>414</v>
       </c>
@@ -7499,7 +7502,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>415</v>
       </c>
@@ -7507,7 +7510,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>416</v>
       </c>
@@ -7515,7 +7518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>1062</v>
       </c>
@@ -7523,7 +7526,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>417</v>
       </c>
@@ -7531,7 +7534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>1063</v>
       </c>
@@ -7539,7 +7542,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>418</v>
       </c>
@@ -7547,7 +7550,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>419</v>
       </c>
@@ -7555,7 +7558,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>420</v>
       </c>
@@ -7563,7 +7566,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>1064</v>
       </c>
@@ -7571,7 +7574,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>421</v>
       </c>
@@ -7579,7 +7582,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>422</v>
       </c>
@@ -7587,7 +7590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>1065</v>
       </c>
@@ -7595,7 +7598,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>1067</v>
       </c>
@@ -7603,7 +7606,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>1068</v>
       </c>
@@ -7611,7 +7614,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>423</v>
       </c>
@@ -7619,7 +7622,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>424</v>
       </c>
@@ -7627,7 +7630,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>425</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>426</v>
       </c>
@@ -7643,7 +7646,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>1070</v>
       </c>
@@ -7651,7 +7654,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>427</v>
       </c>
@@ -7659,7 +7662,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>428</v>
       </c>
@@ -7667,7 +7670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>430</v>
       </c>
@@ -7675,7 +7678,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>431</v>
       </c>
@@ -7683,7 +7686,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>1072</v>
       </c>
@@ -7691,7 +7694,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>1074</v>
       </c>
@@ -7699,7 +7702,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>439</v>
       </c>
@@ -7707,7 +7710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>440</v>
       </c>
@@ -7715,7 +7718,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>441</v>
       </c>
@@ -7723,7 +7726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>442</v>
       </c>
@@ -7731,7 +7734,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>1076</v>
       </c>
@@ -7739,7 +7742,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>443</v>
       </c>
@@ -7747,7 +7750,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>1078</v>
       </c>
@@ -7755,7 +7758,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>444</v>
       </c>
@@ -7763,7 +7766,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>445</v>
       </c>
@@ -7771,7 +7774,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>1080</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>446</v>
       </c>
@@ -7787,7 +7790,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>1082</v>
       </c>
@@ -7795,7 +7798,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>1084</v>
       </c>
@@ -7803,7 +7806,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>447</v>
       </c>
@@ -7811,7 +7814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>448</v>
       </c>
@@ -7819,7 +7822,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>1086</v>
       </c>
@@ -7827,7 +7830,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>453</v>
       </c>
@@ -7835,7 +7838,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>454</v>
       </c>
@@ -7843,7 +7846,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>1087</v>
       </c>
@@ -7851,7 +7854,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>455</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>456</v>
       </c>
@@ -7867,7 +7870,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>457</v>
       </c>
@@ -7875,7 +7878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>458</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>1089</v>
       </c>
@@ -7891,7 +7894,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>459</v>
       </c>
@@ -7899,7 +7902,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>460</v>
       </c>
@@ -7907,7 +7910,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>461</v>
       </c>
@@ -7915,7 +7918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>1091</v>
       </c>
@@ -7923,7 +7926,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>1092</v>
       </c>
@@ -7931,7 +7934,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>463</v>
       </c>
@@ -7939,7 +7942,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>464</v>
       </c>
@@ -7947,7 +7950,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>466</v>
       </c>
@@ -7955,7 +7958,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>467</v>
       </c>
@@ -7963,7 +7966,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>1094</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>468</v>
       </c>
@@ -7979,7 +7982,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>469</v>
       </c>
@@ -7987,7 +7990,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
         <v>470</v>
       </c>
@@ -7995,7 +7998,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>471</v>
       </c>
@@ -8003,7 +8006,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>1096</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>1098</v>
       </c>
@@ -8019,7 +8022,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
         <v>1100</v>
       </c>
@@ -8027,7 +8030,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>472</v>
       </c>
@@ -8035,7 +8038,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
         <v>473</v>
       </c>
@@ -8043,7 +8046,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>1102</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
         <v>474</v>
       </c>
@@ -8059,7 +8062,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>475</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
         <v>1104</v>
       </c>
@@ -8075,7 +8078,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>477</v>
       </c>
@@ -8083,7 +8086,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
         <v>478</v>
       </c>
@@ -8091,7 +8094,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>480</v>
       </c>
@@ -8099,7 +8102,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
         <v>481</v>
       </c>
@@ -8107,7 +8110,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>482</v>
       </c>
@@ -8115,7 +8118,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
         <v>483</v>
       </c>
@@ -8123,7 +8126,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
         <v>1106</v>
       </c>
@@ -8131,7 +8134,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
         <v>484</v>
       </c>
@@ -8139,7 +8142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>1108</v>
       </c>
@@ -8147,7 +8150,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
         <v>1110</v>
       </c>
@@ -8155,7 +8158,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>485</v>
       </c>
@@ -8163,7 +8166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
         <v>1111</v>
       </c>
@@ -8171,7 +8174,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>1113</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
         <v>486</v>
       </c>
@@ -8187,7 +8190,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
         <v>487</v>
       </c>
@@ -8195,7 +8198,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
         <v>1115</v>
       </c>
@@ -8203,7 +8206,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
         <v>488</v>
       </c>
@@ -8211,7 +8214,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
         <v>489</v>
       </c>
@@ -8219,7 +8222,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
         <v>1117</v>
       </c>
@@ -8227,7 +8230,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
         <v>1119</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>490</v>
       </c>
@@ -8243,7 +8246,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
         <v>1121</v>
       </c>
@@ -8251,7 +8254,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>491</v>
       </c>
@@ -8259,7 +8262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
         <v>492</v>
       </c>
@@ -8267,7 +8270,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
         <v>493</v>
       </c>
@@ -8275,7 +8278,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
         <v>1123</v>
       </c>
@@ -8283,7 +8286,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>497</v>
       </c>
@@ -8291,7 +8294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
         <v>499</v>
       </c>
@@ -8299,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>500</v>
       </c>
@@ -8307,7 +8310,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>502</v>
       </c>
@@ -8315,7 +8318,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>505</v>
       </c>
@@ -8323,7 +8326,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
         <v>506</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>508</v>
       </c>
@@ -8339,7 +8342,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>509</v>
       </c>
@@ -8347,7 +8350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>1125</v>
       </c>
@@ -8355,7 +8358,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
         <v>1127</v>
       </c>
@@ -8363,7 +8366,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>511</v>
       </c>
@@ -8371,7 +8374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
         <v>512</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>1129</v>
       </c>
@@ -8387,7 +8390,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
         <v>1130</v>
       </c>
@@ -8395,7 +8398,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>1132</v>
       </c>
@@ -8403,7 +8406,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
         <v>513</v>
       </c>
@@ -8411,7 +8414,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>1134</v>
       </c>
@@ -8419,7 +8422,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
         <v>514</v>
       </c>
@@ -8427,7 +8430,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
         <v>1136</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
         <v>1138</v>
       </c>
@@ -8443,7 +8446,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
         <v>515</v>
       </c>
@@ -8451,7 +8454,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
         <v>1140</v>
       </c>
@@ -8459,7 +8462,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
         <v>517</v>
       </c>
@@ -8467,7 +8470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
         <v>1142</v>
       </c>
@@ -8475,7 +8478,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
         <v>518</v>
       </c>
@@ -8483,7 +8486,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
         <v>519</v>
       </c>
@@ -8491,7 +8494,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
         <v>520</v>
       </c>
@@ -8499,7 +8502,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
         <v>521</v>
       </c>
@@ -8507,7 +8510,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
         <v>522</v>
       </c>
@@ -8515,7 +8518,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
         <v>523</v>
       </c>
@@ -8523,7 +8526,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
         <v>524</v>
       </c>
@@ -8531,7 +8534,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
         <v>525</v>
       </c>
@@ -8539,7 +8542,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
         <v>526</v>
       </c>
@@ -8547,7 +8550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
         <v>1143</v>
       </c>
@@ -8555,7 +8558,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
         <v>527</v>
       </c>
@@ -8563,7 +8566,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
         <v>528</v>
       </c>
@@ -8571,7 +8574,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
         <v>529</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
         <v>1145</v>
       </c>
@@ -8587,7 +8590,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
         <v>530</v>
       </c>
@@ -8595,7 +8598,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
         <v>531</v>
       </c>
@@ -8603,7 +8606,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
         <v>532</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
         <v>1146</v>
       </c>
@@ -8619,7 +8622,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
         <v>1147</v>
       </c>
@@ -8627,7 +8630,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
         <v>1149</v>
       </c>
@@ -8635,7 +8638,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
         <v>533</v>
       </c>
@@ -8643,7 +8646,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
         <v>1151</v>
       </c>
@@ -8651,7 +8654,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
         <v>534</v>
       </c>
@@ -8659,7 +8662,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
         <v>1153</v>
       </c>
@@ -8667,7 +8670,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
         <v>535</v>
       </c>
@@ -8675,7 +8678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
         <v>536</v>
       </c>
@@ -8683,7 +8686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>537</v>
       </c>
@@ -8691,7 +8694,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
         <v>538</v>
       </c>
@@ -8699,7 +8702,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
         <v>539</v>
       </c>
@@ -8707,7 +8710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
         <v>540</v>
       </c>
@@ -8715,7 +8718,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
         <v>1154</v>
       </c>
@@ -8723,7 +8726,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
         <v>541</v>
       </c>
@@ -8731,7 +8734,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
         <v>542</v>
       </c>
@@ -8739,7 +8742,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
         <v>543</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
         <v>544</v>
       </c>
@@ -8755,7 +8758,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
         <v>1155</v>
       </c>
@@ -8763,7 +8766,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
         <v>545</v>
       </c>
@@ -8771,7 +8774,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
         <v>546</v>
       </c>
@@ -8779,7 +8782,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
         <v>547</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
         <v>548</v>
       </c>
@@ -8795,7 +8798,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
         <v>1157</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
         <v>549</v>
       </c>
@@ -8811,7 +8814,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
         <v>550</v>
       </c>
@@ -8819,7 +8822,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
         <v>551</v>
       </c>
@@ -8827,7 +8830,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
         <v>552</v>
       </c>
@@ -8835,7 +8838,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
         <v>553</v>
       </c>
@@ -8843,7 +8846,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
         <v>554</v>
       </c>
@@ -8851,7 +8854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
         <v>1159</v>
       </c>
@@ -8859,7 +8862,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
         <v>555</v>
       </c>
@@ -8867,7 +8870,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
         <v>556</v>
       </c>
@@ -8875,7 +8878,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
         <v>557</v>
       </c>
@@ -8883,7 +8886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
         <v>558</v>
       </c>
@@ -8891,7 +8894,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
         <v>559</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
         <v>560</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
         <v>561</v>
       </c>
@@ -8915,7 +8918,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
         <v>562</v>
       </c>
@@ -8923,7 +8926,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
         <v>563</v>
       </c>
@@ -8931,7 +8934,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
         <v>564</v>
       </c>
@@ -8939,7 +8942,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
         <v>565</v>
       </c>
@@ -8947,7 +8950,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
         <v>566</v>
       </c>
@@ -8955,7 +8958,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
         <v>567</v>
       </c>
@@ -8963,7 +8966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
         <v>568</v>
       </c>
@@ -8971,7 +8974,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
         <v>1161</v>
       </c>
@@ -8979,7 +8982,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
         <v>571</v>
       </c>
@@ -8987,7 +8990,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
         <v>1163</v>
       </c>
@@ -8995,7 +8998,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
         <v>572</v>
       </c>
@@ -9003,7 +9006,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
         <v>1165</v>
       </c>
@@ -9011,7 +9014,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
         <v>573</v>
       </c>
@@ -9019,7 +9022,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
         <v>574</v>
       </c>
@@ -9027,7 +9030,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
         <v>1167</v>
       </c>
@@ -9035,7 +9038,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
         <v>1169</v>
       </c>
@@ -9043,7 +9046,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
         <v>575</v>
       </c>
@@ -9051,7 +9054,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
         <v>576</v>
       </c>
@@ -9059,7 +9062,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
         <v>577</v>
       </c>
@@ -9067,7 +9070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
         <v>578</v>
       </c>
@@ -9075,7 +9078,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
         <v>1171</v>
       </c>
@@ -9083,7 +9086,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
         <v>1173</v>
       </c>
@@ -9091,7 +9094,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
         <v>579</v>
       </c>
@@ -9099,7 +9102,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
         <v>1174</v>
       </c>
@@ -9107,7 +9110,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
         <v>1175</v>
       </c>
@@ -9115,7 +9118,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>580</v>
       </c>
@@ -9123,7 +9126,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
         <v>1176</v>
       </c>
@@ -9131,7 +9134,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
         <v>1177</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
         <v>1178</v>
       </c>
@@ -9147,7 +9150,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
         <v>1179</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
         <v>1180</v>
       </c>
@@ -9163,7 +9166,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
         <v>1181</v>
       </c>
@@ -9171,7 +9174,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
         <v>581</v>
       </c>
@@ -9179,7 +9182,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
         <v>1183</v>
       </c>
@@ -9187,7 +9190,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
         <v>1184</v>
       </c>
@@ -9195,7 +9198,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
         <v>1186</v>
       </c>
@@ -9203,7 +9206,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
         <v>1188</v>
       </c>
@@ -9211,7 +9214,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
         <v>582</v>
       </c>
@@ -9219,7 +9222,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
         <v>583</v>
       </c>
@@ -9227,7 +9230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>1190</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
         <v>584</v>
       </c>
@@ -9243,7 +9246,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
         <v>1192</v>
       </c>
@@ -9251,7 +9254,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
         <v>585</v>
       </c>
@@ -9259,7 +9262,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
         <v>1193</v>
       </c>
@@ -9267,7 +9270,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
         <v>586</v>
       </c>
@@ -9275,7 +9278,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
         <v>587</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
         <v>1195</v>
       </c>
@@ -9291,7 +9294,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
         <v>1197</v>
       </c>
@@ -9299,7 +9302,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
         <v>588</v>
       </c>
@@ -9307,7 +9310,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
         <v>1198</v>
       </c>
@@ -9315,7 +9318,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
         <v>1199</v>
       </c>
@@ -9323,7 +9326,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
         <v>589</v>
       </c>
@@ -9331,7 +9334,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="s">
         <v>590</v>
       </c>
@@ -9339,7 +9342,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
         <v>591</v>
       </c>
@@ -9347,7 +9350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
         <v>1201</v>
       </c>
@@ -9355,7 +9358,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
         <v>592</v>
       </c>
@@ -9363,7 +9366,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
         <v>593</v>
       </c>
@@ -9371,7 +9374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>594</v>
       </c>
@@ -9379,7 +9382,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
         <v>1203</v>
       </c>
@@ -9387,7 +9390,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>1205</v>
       </c>
@@ -9395,7 +9398,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
         <v>1207</v>
       </c>
@@ -9403,7 +9406,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
         <v>1208</v>
       </c>
@@ -9411,7 +9414,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
         <v>595</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
         <v>1210</v>
       </c>
@@ -9427,7 +9430,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
         <v>596</v>
       </c>
@@ -9435,7 +9438,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
         <v>1211</v>
       </c>
@@ -9443,7 +9446,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
         <v>597</v>
       </c>
@@ -9451,7 +9454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
         <v>1212</v>
       </c>
@@ -9459,7 +9462,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
         <v>1214</v>
       </c>
@@ -9467,7 +9470,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
         <v>598</v>
       </c>
@@ -9475,7 +9478,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
         <v>599</v>
       </c>
@@ -9483,7 +9486,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
         <v>1216</v>
       </c>
@@ -9491,7 +9494,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
         <v>600</v>
       </c>
@@ -9499,7 +9502,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
         <v>601</v>
       </c>
@@ -9507,7 +9510,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
         <v>602</v>
       </c>
@@ -9515,7 +9518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
         <v>603</v>
       </c>
@@ -9523,7 +9526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
         <v>1218</v>
       </c>
@@ -9531,7 +9534,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
         <v>604</v>
       </c>
@@ -9539,7 +9542,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
         <v>1220</v>
       </c>
@@ -9547,7 +9550,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
         <v>605</v>
       </c>
@@ -9555,7 +9558,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
         <v>1221</v>
       </c>
@@ -9563,7 +9566,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
         <v>606</v>
       </c>
@@ -9571,7 +9574,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
         <v>607</v>
       </c>
@@ -9579,7 +9582,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
         <v>1222</v>
       </c>
@@ -9587,7 +9590,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
         <v>1224</v>
       </c>
@@ -9595,7 +9598,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
         <v>1226</v>
       </c>
@@ -9603,7 +9606,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
         <v>608</v>
       </c>
@@ -9611,7 +9614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>609</v>
       </c>
@@ -9619,7 +9622,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
         <v>610</v>
       </c>
@@ -9627,7 +9630,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
         <v>1228</v>
       </c>
@@ -9635,7 +9638,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
         <v>611</v>
       </c>
@@ -9643,7 +9646,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
         <v>1230</v>
       </c>
@@ -9651,7 +9654,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
         <v>613</v>
       </c>
@@ -9659,7 +9662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
         <v>1232</v>
       </c>
@@ -9667,7 +9670,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A614" s="3" t="s">
         <v>1234</v>
       </c>
@@ -9675,7 +9678,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
         <v>1236</v>
       </c>
@@ -9683,7 +9686,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
         <v>1237</v>
       </c>
@@ -9691,7 +9694,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
         <v>615</v>
       </c>
@@ -9699,7 +9702,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
         <v>1239</v>
       </c>
@@ -9707,7 +9710,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
         <v>616</v>
       </c>
@@ -9715,7 +9718,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A620" s="3" t="s">
         <v>1241</v>
       </c>
@@ -9723,7 +9726,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
         <v>1243</v>
       </c>
@@ -9731,7 +9734,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A622" s="3" t="s">
         <v>1245</v>
       </c>
@@ -9739,7 +9742,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
         <v>1246</v>
       </c>
@@ -9747,7 +9750,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="624" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A624" s="3" t="s">
         <v>619</v>
       </c>
@@ -9755,7 +9758,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
         <v>1247</v>
       </c>
@@ -9763,7 +9766,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A626" s="3" t="s">
         <v>1249</v>
       </c>
@@ -9771,7 +9774,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
         <v>620</v>
       </c>
@@ -9779,7 +9782,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A628" s="3" t="s">
         <v>1250</v>
       </c>
@@ -9787,7 +9790,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
         <v>621</v>
       </c>
@@ -9795,7 +9798,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A630" s="3" t="s">
         <v>1251</v>
       </c>
@@ -9803,7 +9806,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
         <v>1253</v>
       </c>
@@ -9811,7 +9814,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A632" s="3" t="s">
         <v>1254</v>
       </c>
@@ -9819,7 +9822,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A633" s="3" t="s">
         <v>1256</v>
       </c>
@@ -9827,7 +9830,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A634" s="3" t="s">
         <v>1258</v>
       </c>
@@ -9835,7 +9838,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A635" s="3" t="s">
         <v>622</v>
       </c>
@@ -9843,7 +9846,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A636" s="3" t="s">
         <v>1259</v>
       </c>
@@ -9851,7 +9854,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A637" s="3" t="s">
         <v>1260</v>
       </c>
@@ -9859,7 +9862,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A638" s="3" t="s">
         <v>623</v>
       </c>
@@ -9867,7 +9870,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A639" s="3" t="s">
         <v>1261</v>
       </c>
@@ -9875,7 +9878,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A640" s="3" t="s">
         <v>1262</v>
       </c>
@@ -9883,7 +9886,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
         <v>624</v>
       </c>
@@ -9891,7 +9894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A642" s="3" t="s">
         <v>625</v>
       </c>
@@ -9899,7 +9902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A643" s="3" t="s">
         <v>626</v>
       </c>
@@ -9907,7 +9910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
         <v>627</v>
       </c>
@@ -9915,7 +9918,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
         <v>628</v>
       </c>
@@ -9923,7 +9926,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
         <v>629</v>
       </c>
@@ -9931,7 +9934,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
         <v>630</v>
       </c>
@@ -9939,7 +9942,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
         <v>1263</v>
       </c>
@@ -9947,7 +9950,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
         <v>1265</v>
       </c>
@@ -9955,7 +9958,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
         <v>631</v>
       </c>
@@ -9963,7 +9966,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
         <v>632</v>
       </c>
@@ -9971,7 +9974,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
         <v>1266</v>
       </c>
@@ -9979,7 +9982,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
         <v>633</v>
       </c>
@@ -9987,7 +9990,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A654" s="3" t="s">
         <v>634</v>
       </c>
@@ -9995,7 +9998,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
         <v>1268</v>
       </c>
@@ -10003,7 +10006,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A656" s="3" t="s">
         <v>1270</v>
       </c>
@@ -10011,7 +10014,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A657" s="3" t="s">
         <v>1272</v>
       </c>
@@ -10019,7 +10022,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
         <v>635</v>
       </c>
@@ -10027,7 +10030,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
         <v>1274</v>
       </c>
@@ -10035,7 +10038,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
         <v>636</v>
       </c>
@@ -10043,7 +10046,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A661" s="3" t="s">
         <v>637</v>
       </c>
@@ -10051,7 +10054,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A662" s="3" t="s">
         <v>1275</v>
       </c>
@@ -10059,7 +10062,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A663" s="3" t="s">
         <v>1276</v>
       </c>
@@ -10067,7 +10070,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A664" s="3" t="s">
         <v>638</v>
       </c>
@@ -10075,7 +10078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A665" s="3" t="s">
         <v>1278</v>
       </c>
@@ -10083,7 +10086,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A666" s="3" t="s">
         <v>639</v>
       </c>
@@ -10091,7 +10094,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A667" s="3" t="s">
         <v>1280</v>
       </c>
@@ -10099,7 +10102,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A668" s="3" t="s">
         <v>644</v>
       </c>
@@ -10107,7 +10110,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A669" s="3" t="s">
         <v>645</v>
       </c>
@@ -10115,7 +10118,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A670" s="3" t="s">
         <v>649</v>
       </c>
@@ -10123,7 +10126,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A671" s="3" t="s">
         <v>1282</v>
       </c>
@@ -10131,7 +10134,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="672" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A672" s="3" t="s">
         <v>1283</v>
       </c>
@@ -10139,7 +10142,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
         <v>1284</v>
       </c>
@@ -10147,7 +10150,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A674" s="3" t="s">
         <v>1286</v>
       </c>
@@ -10155,7 +10158,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A675" s="3" t="s">
         <v>1287</v>
       </c>
@@ -10163,7 +10166,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A676" s="3" t="s">
         <v>658</v>
       </c>
@@ -10171,7 +10174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A677" s="3" t="s">
         <v>1289</v>
       </c>
@@ -10179,7 +10182,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A678" s="3" t="s">
         <v>1290</v>
       </c>
@@ -10187,7 +10190,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A679" s="3" t="s">
         <v>662</v>
       </c>
@@ -10195,7 +10198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
         <v>1291</v>
       </c>
@@ -10203,7 +10206,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A681" s="3" t="s">
         <v>664</v>
       </c>
@@ -10211,7 +10214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
         <v>665</v>
       </c>
@@ -10219,7 +10222,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A683" s="3" t="s">
         <v>1292</v>
       </c>
@@ -10227,7 +10230,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A684" s="3" t="s">
         <v>666</v>
       </c>
@@ -10235,7 +10238,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A685" s="3" t="s">
         <v>1293</v>
       </c>
@@ -10243,7 +10246,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A686" s="3" t="s">
         <v>1295</v>
       </c>
@@ -10251,7 +10254,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A687" s="3" t="s">
         <v>1297</v>
       </c>
@@ -10259,7 +10262,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A688" s="3" t="s">
         <v>1298</v>
       </c>
@@ -10267,7 +10270,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A689" s="3" t="s">
         <v>667</v>
       </c>
@@ -10275,7 +10278,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A690" s="3" t="s">
         <v>1300</v>
       </c>
@@ -10283,7 +10286,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A691" s="3" t="s">
         <v>668</v>
       </c>
@@ -10291,7 +10294,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A692" s="3" t="s">
         <v>1301</v>
       </c>
@@ -10299,7 +10302,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A693" s="3" t="s">
         <v>1302</v>
       </c>
@@ -10307,7 +10310,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A694" s="3" t="s">
         <v>1303</v>
       </c>
@@ -10315,7 +10318,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A695" s="3" t="s">
         <v>669</v>
       </c>
@@ -10323,7 +10326,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A696" s="3" t="s">
         <v>1304</v>
       </c>
@@ -10331,7 +10334,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A697" s="3" t="s">
         <v>670</v>
       </c>
@@ -10339,7 +10342,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A698" s="3" t="s">
         <v>671</v>
       </c>
@@ -10347,7 +10350,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A699" s="3" t="s">
         <v>672</v>
       </c>
@@ -10355,7 +10358,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A700" s="3" t="s">
         <v>1305</v>
       </c>
@@ -10363,7 +10366,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A701" s="3" t="s">
         <v>673</v>
       </c>
@@ -10371,7 +10374,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A702" s="3" t="s">
         <v>1306</v>
       </c>
@@ -10379,7 +10382,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A703" s="3" t="s">
         <v>674</v>
       </c>
@@ -10387,7 +10390,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A704" s="3" t="s">
         <v>1308</v>
       </c>
@@ -10395,7 +10398,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
         <v>675</v>
       </c>
@@ -10403,7 +10406,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A706" s="3" t="s">
         <v>1309</v>
       </c>
@@ -10411,7 +10414,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A707" s="3" t="s">
         <v>1310</v>
       </c>
@@ -10419,7 +10422,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A708" s="3" t="s">
         <v>676</v>
       </c>
@@ -10427,7 +10430,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A709" s="3" t="s">
         <v>1311</v>
       </c>
@@ -10435,7 +10438,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A710" s="3" t="s">
         <v>1312</v>
       </c>
@@ -10443,7 +10446,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A711" s="3" t="s">
         <v>1313</v>
       </c>
@@ -10451,7 +10454,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A712" s="3" t="s">
         <v>1315</v>
       </c>
@@ -10459,7 +10462,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A713" s="3" t="s">
         <v>677</v>
       </c>
@@ -10467,7 +10470,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A714" s="3" t="s">
         <v>1316</v>
       </c>
@@ -10475,7 +10478,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A715" s="3" t="s">
         <v>678</v>
       </c>
@@ -10483,7 +10486,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A716" s="3" t="s">
         <v>679</v>
       </c>
@@ -10491,7 +10494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A717" s="3" t="s">
         <v>1317</v>
       </c>
@@ -10499,7 +10502,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A718" s="3" t="s">
         <v>1319</v>
       </c>
@@ -10507,7 +10510,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A719" s="3" t="s">
         <v>680</v>
       </c>
@@ -10515,7 +10518,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A720" s="3" t="s">
         <v>1321</v>
       </c>
@@ -10523,7 +10526,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A721" s="3" t="s">
         <v>1323</v>
       </c>
@@ -10531,7 +10534,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A722" s="3" t="s">
         <v>1325</v>
       </c>
@@ -10539,7 +10542,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A723" s="3" t="s">
         <v>1327</v>
       </c>
@@ -10547,7 +10550,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A724" s="3" t="s">
         <v>1328</v>
       </c>
@@ -10555,7 +10558,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A725" s="3" t="s">
         <v>1330</v>
       </c>
@@ -10563,7 +10566,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A726" s="3" t="s">
         <v>1332</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A727" s="3" t="s">
         <v>1333</v>
       </c>
@@ -10579,7 +10582,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A728" s="3" t="s">
         <v>1335</v>
       </c>
@@ -10587,7 +10590,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A729" s="3" t="s">
         <v>1336</v>
       </c>
@@ -10595,7 +10598,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A730" s="3" t="s">
         <v>681</v>
       </c>
@@ -10603,7 +10606,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A731" s="3" t="s">
         <v>682</v>
       </c>
@@ -10611,7 +10614,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A732" s="3" t="s">
         <v>683</v>
       </c>
@@ -10619,7 +10622,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A733" s="3" t="s">
         <v>1337</v>
       </c>
@@ -10627,7 +10630,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A734" s="3" t="s">
         <v>684</v>
       </c>
@@ -10635,7 +10638,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A735" s="3" t="s">
         <v>1339</v>
       </c>
@@ -10643,7 +10646,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A736" s="3" t="s">
         <v>1340</v>
       </c>
@@ -10651,7 +10654,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A737" s="3" t="s">
         <v>685</v>
       </c>
@@ -10659,7 +10662,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A738" s="3" t="s">
         <v>1341</v>
       </c>
@@ -10667,7 +10670,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A739" s="3" t="s">
         <v>1343</v>
       </c>
@@ -10675,7 +10678,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A740" s="3" t="s">
         <v>1345</v>
       </c>
@@ -10683,7 +10686,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A741" s="3" t="s">
         <v>689</v>
       </c>
@@ -10691,7 +10694,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A742" s="3" t="s">
         <v>1347</v>
       </c>
@@ -10699,7 +10702,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A743" s="3" t="s">
         <v>1348</v>
       </c>
@@ -10707,7 +10710,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A744" s="3" t="s">
         <v>690</v>
       </c>
@@ -10715,7 +10718,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A745" s="3" t="s">
         <v>1349</v>
       </c>
@@ -10723,7 +10726,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A746" s="3" t="s">
         <v>1350</v>
       </c>
@@ -10731,7 +10734,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A747" s="3" t="s">
         <v>691</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A748" s="3" t="s">
         <v>692</v>
       </c>
@@ -10747,7 +10750,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A749" s="3" t="s">
         <v>1351</v>
       </c>
@@ -10755,7 +10758,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A750" s="3" t="s">
         <v>1353</v>
       </c>
@@ -10763,7 +10766,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A751" s="3" t="s">
         <v>1354</v>
       </c>
@@ -10771,7 +10774,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A752" s="3" t="s">
         <v>1356</v>
       </c>
@@ -10779,7 +10782,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A753" s="3" t="s">
         <v>694</v>
       </c>
@@ -10787,7 +10790,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A754" s="3" t="s">
         <v>695</v>
       </c>
@@ -10795,7 +10798,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A755" s="3" t="s">
         <v>696</v>
       </c>
@@ -10803,7 +10806,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A756" s="3" t="s">
         <v>697</v>
       </c>
@@ -10811,7 +10814,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A757" s="3" t="s">
         <v>699</v>
       </c>
@@ -10819,7 +10822,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A758" s="3" t="s">
         <v>700</v>
       </c>
@@ -10827,7 +10830,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A759" s="3" t="s">
         <v>1358</v>
       </c>
@@ -10835,7 +10838,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A760" s="3" t="s">
         <v>1359</v>
       </c>
@@ -10843,7 +10846,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A761" s="3" t="s">
         <v>1361</v>
       </c>
@@ -10851,7 +10854,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A762" s="3" t="s">
         <v>703</v>
       </c>
@@ -10859,7 +10862,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A763" s="3" t="s">
         <v>704</v>
       </c>
@@ -10867,7 +10870,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A764" s="3" t="s">
         <v>1362</v>
       </c>
@@ -10875,7 +10878,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A765" s="3" t="s">
         <v>705</v>
       </c>
@@ -10883,7 +10886,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A766" s="3" t="s">
         <v>1363</v>
       </c>
@@ -10891,7 +10894,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A767" s="3" t="s">
         <v>1364</v>
       </c>
@@ -10899,7 +10902,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A768" s="3" t="s">
         <v>709</v>
       </c>
@@ -10907,7 +10910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="769" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A769" s="3" t="s">
         <v>1365</v>
       </c>
@@ -10915,7 +10918,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A770" s="3" t="s">
         <v>711</v>
       </c>
@@ -10923,7 +10926,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A771" s="3" t="s">
         <v>1367</v>
       </c>
@@ -10931,7 +10934,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A772" s="3" t="s">
         <v>1369</v>
       </c>
@@ -10939,7 +10942,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A773" s="3" t="s">
         <v>712</v>
       </c>
@@ -10947,7 +10950,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A774" s="3" t="s">
         <v>715</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="775" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A775" s="3" t="s">
         <v>716</v>
       </c>
@@ -10963,7 +10966,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A776" s="3" t="s">
         <v>1371</v>
       </c>
@@ -10971,7 +10974,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A777" s="3" t="s">
         <v>1372</v>
       </c>
@@ -10979,7 +10982,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A778" s="3" t="s">
         <v>717</v>
       </c>
@@ -10987,7 +10990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A779" s="3" t="s">
         <v>718</v>
       </c>
@@ -10995,7 +10998,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A780" s="3" t="s">
         <v>720</v>
       </c>
@@ -11003,7 +11006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A781" s="3" t="s">
         <v>721</v>
       </c>
@@ -11011,7 +11014,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A782" s="3" t="s">
         <v>1374</v>
       </c>
@@ -11019,7 +11022,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A783" s="3" t="s">
         <v>722</v>
       </c>
@@ -11027,7 +11030,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A784" s="3" t="s">
         <v>723</v>
       </c>
@@ -11035,7 +11038,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A785" s="3" t="s">
         <v>1375</v>
       </c>
@@ -11043,7 +11046,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A786" s="3" t="s">
         <v>724</v>
       </c>
@@ -11051,7 +11054,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A787" s="3" t="s">
         <v>1376</v>
       </c>
@@ -11059,7 +11062,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A788" s="3" t="s">
         <v>1377</v>
       </c>
@@ -11067,7 +11070,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="789" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A789" s="3" t="s">
         <v>725</v>
       </c>
@@ -11075,7 +11078,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A790" s="3" t="s">
         <v>726</v>
       </c>
@@ -11083,7 +11086,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A791" s="3" t="s">
         <v>728</v>
       </c>
@@ -11091,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A792" s="3" t="s">
         <v>729</v>
       </c>
@@ -11099,7 +11102,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A793" s="3" t="s">
         <v>730</v>
       </c>
@@ -11107,7 +11110,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A794" s="3" t="s">
         <v>1378</v>
       </c>
@@ -11115,7 +11118,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A795" s="3" t="s">
         <v>1380</v>
       </c>
@@ -11123,7 +11126,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A796" s="3" t="s">
         <v>731</v>
       </c>
@@ -11131,7 +11134,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A797" s="3" t="s">
         <v>732</v>
       </c>
@@ -11139,7 +11142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A798" s="3" t="s">
         <v>735</v>
       </c>
@@ -11147,7 +11150,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A799" s="3" t="s">
         <v>736</v>
       </c>
@@ -11155,7 +11158,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A800" s="3" t="s">
         <v>737</v>
       </c>
@@ -11163,7 +11166,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A801" s="3" t="s">
         <v>738</v>
       </c>
@@ -11171,7 +11174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A802" s="3" t="s">
         <v>1381</v>
       </c>
@@ -11179,7 +11182,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A803" s="3" t="s">
         <v>1382</v>
       </c>
@@ -11187,7 +11190,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A804" s="3" t="s">
         <v>740</v>
       </c>
@@ -11195,7 +11198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A805" s="3" t="s">
         <v>741</v>
       </c>
@@ -11203,7 +11206,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A806" s="3" t="s">
         <v>742</v>
       </c>
@@ -11211,7 +11214,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A807" s="3" t="s">
         <v>743</v>
       </c>
@@ -11219,7 +11222,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A808" s="3" t="s">
         <v>744</v>
       </c>
@@ -11227,7 +11230,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A809" s="3" t="s">
         <v>745</v>
       </c>
@@ -11235,7 +11238,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A810" s="3" t="s">
         <v>746</v>
       </c>
@@ -11243,7 +11246,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A811" s="3" t="s">
         <v>747</v>
       </c>
@@ -11251,7 +11254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A812" s="3" t="s">
         <v>748</v>
       </c>
@@ -11259,7 +11262,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A813" s="3" t="s">
         <v>749</v>
       </c>
@@ -11267,7 +11270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A814" s="3" t="s">
         <v>1383</v>
       </c>
@@ -11275,7 +11278,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A815" s="3" t="s">
         <v>750</v>
       </c>
@@ -11283,7 +11286,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A816" s="3" t="s">
         <v>751</v>
       </c>
@@ -11291,7 +11294,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A817" s="3" t="s">
         <v>752</v>
       </c>
@@ -11299,7 +11302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A818" s="3" t="s">
         <v>753</v>
       </c>
@@ -11307,7 +11310,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A819" s="3" t="s">
         <v>754</v>
       </c>
@@ -11315,7 +11318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A820" s="3" t="s">
         <v>755</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A821" s="3" t="s">
         <v>756</v>
       </c>
@@ -11331,7 +11334,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A822" s="3" t="s">
         <v>757</v>
       </c>
@@ -11339,7 +11342,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A823" s="3" t="s">
         <v>1384</v>
       </c>
@@ -11347,7 +11350,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A824" s="3" t="s">
         <v>758</v>
       </c>
@@ -11355,7 +11358,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A825" s="3" t="s">
         <v>759</v>
       </c>
@@ -11363,7 +11366,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A826" s="3" t="s">
         <v>760</v>
       </c>
@@ -11371,7 +11374,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A827" s="3" t="s">
         <v>1386</v>
       </c>
@@ -11379,7 +11382,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A828" s="3" t="s">
         <v>761</v>
       </c>
@@ -11387,7 +11390,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A829" s="3" t="s">
         <v>762</v>
       </c>
@@ -11395,7 +11398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A830" s="3" t="s">
         <v>1387</v>
       </c>
@@ -11403,7 +11406,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A831" s="3" t="s">
         <v>1388</v>
       </c>
@@ -11411,7 +11414,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A832" s="3" t="s">
         <v>766</v>
       </c>
@@ -11419,7 +11422,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A833" s="3" t="s">
         <v>767</v>
       </c>
@@ -11427,7 +11430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A834" s="3" t="s">
         <v>768</v>
       </c>
@@ -11435,7 +11438,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A835" s="3" t="s">
         <v>769</v>
       </c>
@@ -11443,7 +11446,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A836" s="3" t="s">
         <v>770</v>
       </c>
@@ -11451,7 +11454,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A837" s="3" t="s">
         <v>771</v>
       </c>
@@ -11459,7 +11462,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A838" s="3" t="s">
         <v>772</v>
       </c>
@@ -11467,7 +11470,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A839" s="3" t="s">
         <v>773</v>
       </c>
@@ -11475,7 +11478,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A840" s="3" t="s">
         <v>774</v>
       </c>
@@ -11483,7 +11486,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A841" s="3" t="s">
         <v>775</v>
       </c>
@@ -11491,7 +11494,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A842" s="3" t="s">
         <v>776</v>
       </c>
@@ -11499,7 +11502,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A843" s="3" t="s">
         <v>1389</v>
       </c>
@@ -11507,7 +11510,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A844" s="3" t="s">
         <v>1390</v>
       </c>
@@ -11515,7 +11518,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A845" s="3" t="s">
         <v>777</v>
       </c>
@@ -11523,7 +11526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A846" s="3" t="s">
         <v>778</v>
       </c>
@@ -11531,7 +11534,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A847" s="3" t="s">
         <v>1391</v>
       </c>
@@ -11539,7 +11542,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A848" s="3" t="s">
         <v>780</v>
       </c>
@@ -11547,7 +11550,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A849" s="3" t="s">
         <v>783</v>
       </c>
@@ -11555,7 +11558,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A850" s="3" t="s">
         <v>1392</v>
       </c>
@@ -11563,7 +11566,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A851" s="3" t="s">
         <v>784</v>
       </c>
@@ -11571,7 +11574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A852" s="3" t="s">
         <v>785</v>
       </c>
@@ -11579,7 +11582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="853" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A853" s="3" t="s">
         <v>1393</v>
       </c>
@@ -11587,7 +11590,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A854" s="3" t="s">
         <v>786</v>
       </c>
@@ -11595,7 +11598,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A855" s="3" t="s">
         <v>787</v>
       </c>
@@ -11603,7 +11606,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A856" s="3" t="s">
         <v>788</v>
       </c>
@@ -11611,7 +11614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A857" s="3" t="s">
         <v>789</v>
       </c>
@@ -11619,7 +11622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A858" s="3" t="s">
         <v>791</v>
       </c>
@@ -11627,7 +11630,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A859" s="3" t="s">
         <v>792</v>
       </c>
@@ -11635,7 +11638,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A860" s="3" t="s">
         <v>793</v>
       </c>
@@ -11643,7 +11646,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A861" s="3" t="s">
         <v>1394</v>
       </c>
@@ -11651,7 +11654,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A862" s="3" t="s">
         <v>794</v>
       </c>
@@ -11659,7 +11662,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A863" s="3" t="s">
         <v>795</v>
       </c>
@@ -11667,7 +11670,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A864" s="3" t="s">
         <v>796</v>
       </c>
@@ -11675,7 +11678,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A865" s="3" t="s">
         <v>1395</v>
       </c>
@@ -11683,7 +11686,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A866" s="3" t="s">
         <v>797</v>
       </c>
@@ -11691,7 +11694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A867" s="3" t="s">
         <v>798</v>
       </c>
@@ -11699,7 +11702,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A868" s="3" t="s">
         <v>799</v>
       </c>
@@ -11707,7 +11710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A869" s="3" t="s">
         <v>800</v>
       </c>
@@ -11715,7 +11718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A870" s="3" t="s">
         <v>1396</v>
       </c>
@@ -11723,7 +11726,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A871" s="3" t="s">
         <v>802</v>
       </c>
@@ -11731,7 +11734,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A872" s="3" t="s">
         <v>803</v>
       </c>
@@ -11739,7 +11742,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A873" s="3" t="s">
         <v>804</v>
       </c>
@@ -11747,7 +11750,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A874" s="3" t="s">
         <v>1398</v>
       </c>
@@ -11755,7 +11758,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A875" s="3" t="s">
         <v>806</v>
       </c>
@@ -11763,7 +11766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A876" s="3" t="s">
         <v>807</v>
       </c>
@@ -11771,7 +11774,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A877" s="3" t="s">
         <v>808</v>
       </c>
@@ -11779,7 +11782,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A878" s="3" t="s">
         <v>809</v>
       </c>
@@ -11787,7 +11790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A879" s="3" t="s">
         <v>1399</v>
       </c>
@@ -11795,7 +11798,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A880" s="3" t="s">
         <v>810</v>
       </c>
@@ -11803,7 +11806,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A881" s="3" t="s">
         <v>812</v>
       </c>
@@ -11811,7 +11814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A882" s="3" t="s">
         <v>813</v>
       </c>
@@ -11819,7 +11822,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A883" s="3" t="s">
         <v>814</v>
       </c>
@@ -11827,7 +11830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A884" s="3" t="s">
         <v>1401</v>
       </c>
@@ -11835,7 +11838,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A885" s="3" t="s">
         <v>1403</v>
       </c>
@@ -11843,7 +11846,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A886" s="3" t="s">
         <v>816</v>
       </c>
@@ -11851,7 +11854,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A887" s="3" t="s">
         <v>1404</v>
       </c>
@@ -11859,7 +11862,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A888" s="3" t="s">
         <v>1405</v>
       </c>
@@ -11867,7 +11870,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A889" s="3" t="s">
         <v>1406</v>
       </c>
@@ -11875,7 +11878,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A890" s="3" t="s">
         <v>1408</v>
       </c>
@@ -11883,7 +11886,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A891" s="3" t="s">
         <v>817</v>
       </c>
@@ -11891,7 +11894,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A892" s="3" t="s">
         <v>818</v>
       </c>
@@ -11899,7 +11902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A893" s="3" t="s">
         <v>819</v>
       </c>
@@ -11907,7 +11910,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A894" s="3" t="s">
         <v>820</v>
       </c>
@@ -11915,7 +11918,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A895" s="3" t="s">
         <v>821</v>
       </c>
@@ -11923,7 +11926,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A896" s="3" t="s">
         <v>822</v>
       </c>
@@ -11931,7 +11934,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A897" s="3" t="s">
         <v>823</v>
       </c>
@@ -11939,7 +11942,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A898" s="3" t="s">
         <v>1410</v>
       </c>
@@ -11947,7 +11950,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A899" s="3" t="s">
         <v>824</v>
       </c>
@@ -11955,7 +11958,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A900" s="3" t="s">
         <v>1411</v>
       </c>
@@ -11963,7 +11966,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A901" s="3" t="s">
         <v>825</v>
       </c>
@@ -11971,7 +11974,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A902" s="3" t="s">
         <v>1412</v>
       </c>
@@ -11979,7 +11982,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A903" s="3" t="s">
         <v>826</v>
       </c>
@@ -11987,7 +11990,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A904" s="3" t="s">
         <v>827</v>
       </c>
@@ -11995,7 +11998,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A905" s="3" t="s">
         <v>1413</v>
       </c>
@@ -12003,7 +12006,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A906" s="3" t="s">
         <v>1414</v>
       </c>
@@ -12011,7 +12014,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A907" s="3" t="s">
         <v>831</v>
       </c>
@@ -12019,7 +12022,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A908" s="3" t="s">
         <v>1415</v>
       </c>
@@ -12027,7 +12030,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A909" s="3" t="s">
         <v>832</v>
       </c>
@@ -12035,7 +12038,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A910" s="3" t="s">
         <v>833</v>
       </c>
@@ -12043,7 +12046,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A911" s="3" t="s">
         <v>834</v>
       </c>
@@ -12051,7 +12054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A912" s="3" t="s">
         <v>835</v>
       </c>
@@ -12059,7 +12062,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A913" s="3" t="s">
         <v>836</v>
       </c>
@@ -12067,7 +12070,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="914" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A914" s="3" t="s">
         <v>837</v>
       </c>
@@ -12075,7 +12078,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A915" s="3" t="s">
         <v>1417</v>
       </c>
@@ -12083,7 +12086,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A916" s="3" t="s">
         <v>838</v>
       </c>
@@ -12091,7 +12094,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A917" s="3" t="s">
         <v>1419</v>
       </c>
@@ -12099,7 +12102,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A918" s="3" t="s">
         <v>839</v>
       </c>
@@ -12107,7 +12110,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A919" s="3" t="s">
         <v>840</v>
       </c>
@@ -12115,7 +12118,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A920" s="3" t="s">
         <v>1420</v>
       </c>
@@ -12123,7 +12126,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A921" s="3" t="s">
         <v>843</v>
       </c>
@@ -12131,7 +12134,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A922" s="3" t="s">
         <v>844</v>
       </c>
@@ -12139,7 +12142,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A923" s="3" t="s">
         <v>845</v>
       </c>
@@ -12147,7 +12150,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A924" s="3" t="s">
         <v>1422</v>
       </c>
@@ -12155,7 +12158,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A925" s="3" t="s">
         <v>847</v>
       </c>
@@ -12163,7 +12166,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A926" s="3" t="s">
         <v>848</v>
       </c>
@@ -12171,7 +12174,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A927" s="3" t="s">
         <v>849</v>
       </c>
@@ -12179,7 +12182,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A928" s="3" t="s">
         <v>850</v>
       </c>
@@ -12187,7 +12190,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A929" s="3" t="s">
         <v>1424</v>
       </c>
@@ -12195,7 +12198,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A930" s="3" t="s">
         <v>1425</v>
       </c>
@@ -12203,7 +12206,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A931" s="3" t="s">
         <v>852</v>
       </c>
@@ -12211,7 +12214,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A932" s="3" t="s">
         <v>853</v>
       </c>
@@ -12219,7 +12222,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A933" s="3" t="s">
         <v>1426</v>
       </c>
@@ -12227,7 +12230,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A934" s="3" t="s">
         <v>1427</v>
       </c>
@@ -12235,7 +12238,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A935" s="3" t="s">
         <v>1428</v>
       </c>
@@ -12243,7 +12246,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="936" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A936" s="3" t="s">
         <v>1429</v>
       </c>
@@ -12251,7 +12254,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A937" s="3" t="s">
         <v>856</v>
       </c>
@@ -12259,7 +12262,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A938" s="3" t="s">
         <v>857</v>
       </c>
@@ -12267,7 +12270,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A939" s="3" t="s">
         <v>858</v>
       </c>
@@ -12275,7 +12278,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A940" s="3" t="s">
         <v>859</v>
       </c>
@@ -12283,7 +12286,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A941" s="3" t="s">
         <v>862</v>
       </c>
@@ -12291,7 +12294,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A942" s="3" t="s">
         <v>1435</v>
       </c>
@@ -12299,7 +12302,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A943" s="3" t="s">
         <v>1437</v>
       </c>
@@ -12307,7 +12310,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A944" s="3" t="s">
         <v>1438</v>
       </c>
@@ -12315,7 +12318,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="945" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A945" s="3" t="s">
         <v>1439</v>
       </c>
@@ -12323,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A946" s="3" t="s">
         <v>1440</v>
       </c>
@@ -12331,7 +12334,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A947" s="3" t="s">
         <v>1442</v>
       </c>
@@ -12339,7 +12342,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A948" s="3" t="s">
         <v>1444</v>
       </c>
@@ -12347,7 +12350,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A949" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12355,7 +12358,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A950" s="3" t="s">
         <v>1446</v>
       </c>
@@ -12363,7 +12366,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A951" s="3" t="s">
         <v>1447</v>
       </c>
@@ -12371,7 +12374,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A952" s="3" t="s">
         <v>1448</v>
       </c>
@@ -12379,7 +12382,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A953" s="3" t="s">
         <v>1449</v>
       </c>
@@ -12387,7 +12390,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A954" s="3" t="s">
         <v>1451</v>
       </c>
@@ -12395,7 +12398,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A955" s="3" t="s">
         <v>1452</v>
       </c>
@@ -12403,7 +12406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A956" s="3" t="s">
         <v>1453</v>
       </c>
@@ -12411,7 +12414,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A957" s="3" t="s">
         <v>1455</v>
       </c>
@@ -12419,7 +12422,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A958" s="3" t="s">
         <v>1456</v>
       </c>
@@ -12427,7 +12430,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A959" s="3" t="s">
         <v>1458</v>
       </c>
@@ -12435,7 +12438,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="960" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A960" s="3" t="s">
         <v>1460</v>
       </c>
@@ -12443,7 +12446,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A961" s="3" t="s">
         <v>1461</v>
       </c>
@@ -12451,7 +12454,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A962" s="3" t="s">
         <v>1462</v>
       </c>
@@ -12459,12 +12462,20 @@
         <v>183</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>936</v>
       </c>
       <c r="B963" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A964" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B964" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12479,7 +12490,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storage/app/public/public/transfer_organizations_payments.xlsx
+++ b/storage/app/public/public/transfer_organizations_payments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/result/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A070F960-FA92-9840-AB27-5E65C318F217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C544351-14D4-9041-B4E2-06CEFF0521E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,9 +587,6 @@
     <t>АО "ВОСТОК-СЕРВИС-СПЕЦКОМПЛЕКТ"</t>
   </si>
   <si>
-    <t>ООО "ОКТАФАРМА- ФАРМИМЭКС"</t>
-  </si>
-  <si>
     <t>ООО СИНЕРГИЯ</t>
   </si>
   <si>
@@ -4428,6 +4425,9 @@
   </si>
   <si>
     <t>ООО "СТРОЙ ТЕХНОИНЖЕНЕРИНГ"</t>
+  </si>
+  <si>
+    <t>ООО "ОКТАФАРМА-ФАРМИМЭКС"</t>
   </si>
 </sst>
 </file>
@@ -4756,8 +4756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A940" workbookViewId="0">
-      <selection activeCell="A955" sqref="A955"/>
+    <sheetView tabSelected="1" topLeftCell="A942" workbookViewId="0">
+      <selection activeCell="B949" sqref="B949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4768,18 +4768,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4787,15 +4787,15 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4803,7 +4803,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -4811,7 +4811,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4819,23 +4819,23 @@
         <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>881</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4859,7 +4859,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -4867,15 +4867,15 @@
         <v>68</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="B14" t="s">
         <v>885</v>
-      </c>
-      <c r="B14" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4883,15 +4883,15 @@
         <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>887</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4907,7 +4907,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>183</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4915,7 +4915,7 @@
         <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4931,7 +4931,7 @@
         <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4939,7 +4939,7 @@
         <v>94</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4947,7 +4947,7 @@
         <v>95</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4960,18 +4960,18 @@
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>891</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4979,7 +4979,7 @@
         <v>100</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4987,7 +4987,7 @@
         <v>103</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -5000,7 +5000,7 @@
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>59</v>
@@ -5008,18 +5008,18 @@
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>893</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -5040,7 +5040,7 @@
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>86</v>
@@ -5064,10 +5064,10 @@
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -5075,7 +5075,7 @@
         <v>127</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -5099,7 +5099,7 @@
         <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -5131,7 +5131,7 @@
         <v>142</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -5155,15 +5155,15 @@
         <v>145</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -5219,23 +5219,23 @@
         <v>175</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -5248,15 +5248,15 @@
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>65</v>
@@ -5264,31 +5264,31 @@
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>912</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>69</v>
@@ -5296,23 +5296,23 @@
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B68" t="s">
         <v>914</v>
-      </c>
-      <c r="B68" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>129</v>
@@ -5320,15 +5320,15 @@
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>916</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>18</v>
@@ -5336,15 +5336,15 @@
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>51</v>
@@ -5352,15 +5352,15 @@
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>78</v>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>18</v>
@@ -5376,23 +5376,23 @@
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>98</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>10</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>43</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>75</v>
@@ -5424,7 +5424,7 @@
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>30</v>
@@ -5432,23 +5432,23 @@
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>922</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>182</v>
@@ -5456,15 +5456,15 @@
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>85</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>86</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>29</v>
@@ -5488,15 +5488,15 @@
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>64</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>9</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>17</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>25</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>77</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>34</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B98" t="s">
         <v>71</v>
@@ -5552,31 +5552,31 @@
     </row>
     <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>926</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>150</v>
@@ -5584,15 +5584,15 @@
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>53</v>
@@ -5600,15 +5600,15 @@
     </row>
     <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>931</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>2</v>
@@ -5616,15 +5616,15 @@
     </row>
     <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>933</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>15</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>87</v>
@@ -5640,15 +5640,15 @@
     </row>
     <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>99</v>
@@ -5656,15 +5656,15 @@
     </row>
     <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>937</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>50</v>
@@ -5672,55 +5672,55 @@
     </row>
     <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>939</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>941</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>943</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>947</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>167</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>76</v>
@@ -5736,15 +5736,15 @@
     </row>
     <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>16</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>8</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>116</v>
@@ -5768,15 +5768,15 @@
     </row>
     <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>949</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>7</v>
@@ -5784,39 +5784,39 @@
     </row>
     <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>952</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>954</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>956</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>29</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>98</v>
@@ -5832,15 +5832,15 @@
     </row>
     <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>167</v>
@@ -5848,23 +5848,23 @@
     </row>
     <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B137" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B138" t="s">
         <v>78</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>15</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>9</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>85</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B142" t="s">
         <v>25</v>
@@ -5904,23 +5904,23 @@
     </row>
     <row r="143" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>30</v>
@@ -5928,15 +5928,15 @@
     </row>
     <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>959</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>51</v>
@@ -5944,23 +5944,23 @@
     </row>
     <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>961</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>91</v>
@@ -5968,15 +5968,15 @@
     </row>
     <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>99</v>
@@ -5984,39 +5984,39 @@
     </row>
     <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="B156" t="s">
         <v>968</v>
-      </c>
-      <c r="B156" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B157" t="s">
         <v>18</v>
@@ -6024,15 +6024,15 @@
     </row>
     <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B158" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>10</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>73</v>
@@ -6048,31 +6048,31 @@
     </row>
     <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B163" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>2</v>
@@ -6080,23 +6080,23 @@
     </row>
     <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>7</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B168" t="s">
         <v>53</v>
@@ -6112,15 +6112,15 @@
     </row>
     <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>159</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>34</v>
@@ -6136,7 +6136,7 @@
     </row>
     <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>64</v>
@@ -6144,15 +6144,15 @@
     </row>
     <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>129</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>24</v>
@@ -6168,15 +6168,15 @@
     </row>
     <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>19</v>
@@ -6184,31 +6184,31 @@
     </row>
     <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>977</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>86</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>75</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>87</v>
@@ -6232,31 +6232,31 @@
     </row>
     <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>979</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B187" t="s">
         <v>111</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>138</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>148</v>
@@ -6280,23 +6280,23 @@
     </row>
     <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>82</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>168</v>
@@ -6312,31 +6312,31 @@
     </row>
     <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>982</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>984</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B197" t="s">
         <v>177</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B198" t="s">
         <v>48</v>
@@ -6352,7 +6352,7 @@
     </row>
     <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B199" t="s">
         <v>92</v>
@@ -6360,15 +6360,15 @@
     </row>
     <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B200" t="s">
         <v>986</v>
-      </c>
-      <c r="B200" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>63</v>
@@ -6376,23 +6376,23 @@
     </row>
     <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B202" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>148</v>
@@ -6400,7 +6400,7 @@
     </row>
     <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>111</v>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>90</v>
@@ -6416,15 +6416,15 @@
     </row>
     <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>988</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>96</v>
@@ -6432,23 +6432,23 @@
     </row>
     <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>96</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>157</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>57</v>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B214" t="s">
         <v>154</v>
@@ -6480,23 +6480,23 @@
     </row>
     <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>990</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>38</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>126</v>
@@ -6512,15 +6512,15 @@
     </row>
     <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>80</v>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>113</v>
@@ -6536,7 +6536,7 @@
     </row>
     <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>38</v>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>147</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>65</v>
@@ -6560,23 +6560,23 @@
     </row>
     <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>993</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>96</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>154</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>126</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>153</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>109</v>
@@ -6616,47 +6616,47 @@
     </row>
     <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>995</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>997</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>113</v>
@@ -6664,15 +6664,15 @@
     </row>
     <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>110</v>
@@ -6680,39 +6680,39 @@
     </row>
     <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>112</v>
@@ -6720,55 +6720,55 @@
     </row>
     <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B247" s="3" t="s">
         <v>999</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B250" s="3" t="s">
         <v>1001</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>116</v>
@@ -6776,23 +6776,23 @@
     </row>
     <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B252" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B253" s="3" t="s">
         <v>1005</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>82</v>
@@ -6800,119 +6800,119 @@
     </row>
     <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B264" t="s">
         <v>1011</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>1014</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>171</v>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>135</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>42</v>
@@ -6936,15 +6936,15 @@
     </row>
     <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>1016</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>156</v>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>80</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>117</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>146</v>
@@ -6976,39 +6976,39 @@
     </row>
     <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B278" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B279" s="3" t="s">
         <v>1020</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B280" s="3" t="s">
         <v>1022</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>126</v>
@@ -7016,31 +7016,31 @@
     </row>
     <row r="282" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B282" s="3" t="s">
         <v>1024</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>77</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>135</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>82</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>160</v>
@@ -7072,15 +7072,15 @@
     </row>
     <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B289" s="3" t="s">
         <v>1026</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>160</v>
@@ -7088,15 +7088,15 @@
     </row>
     <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>160</v>
@@ -7104,7 +7104,7 @@
     </row>
     <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>160</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>29</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>160</v>
@@ -7128,39 +7128,39 @@
     </row>
     <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B296" s="3" t="s">
         <v>1028</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B297" s="3" t="s">
         <v>1030</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B298" s="3" t="s">
         <v>1032</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B299" t="s">
         <v>1034</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>20</v>
@@ -7168,55 +7168,55 @@
     </row>
     <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B304" s="3" t="s">
         <v>1036</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B305" s="3" t="s">
         <v>1038</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>62</v>
@@ -7224,15 +7224,15 @@
     </row>
     <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B308" s="3" t="s">
         <v>1040</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>33</v>
@@ -7240,15 +7240,15 @@
     </row>
     <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>0</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>57</v>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="313" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>4</v>
@@ -7272,7 +7272,7 @@
     </row>
     <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>140</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>108</v>
@@ -7288,31 +7288,31 @@
     </row>
     <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B317" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>104</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>125</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>20</v>
@@ -7336,39 +7336,39 @@
     </row>
     <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B322" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B323" s="3" t="s">
         <v>1046</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B325" s="3" t="s">
         <v>1048</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>8</v>
@@ -7376,15 +7376,15 @@
     </row>
     <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>37</v>
@@ -7392,31 +7392,31 @@
     </row>
     <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B329" s="3" t="s">
         <v>1051</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B330" s="3" t="s">
         <v>1053</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>3</v>
@@ -7424,47 +7424,47 @@
     </row>
     <row r="333" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B335" s="3" t="s">
         <v>1056</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>73</v>
@@ -7472,47 +7472,47 @@
     </row>
     <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B340" s="3" t="s">
         <v>1058</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B341" s="3" t="s">
         <v>1060</v>
-      </c>
-      <c r="B341" s="3" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B343" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>39</v>
@@ -7520,15 +7520,15 @@
     </row>
     <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>11</v>
@@ -7536,23 +7536,23 @@
     </row>
     <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>159</v>
@@ -7560,31 +7560,31 @@
     </row>
     <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>5</v>
@@ -7592,39 +7592,39 @@
     </row>
     <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B354" s="3" t="s">
         <v>1065</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B356" s="3" t="s">
         <v>1068</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>52</v>
@@ -7632,15 +7632,15 @@
     </row>
     <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B360" t="s">
         <v>96</v>
@@ -7648,23 +7648,23 @@
     </row>
     <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B361" s="3" t="s">
         <v>1070</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>31</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>96</v>
@@ -7680,31 +7680,31 @@
     </row>
     <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B366" s="3" t="s">
         <v>1072</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B367" s="3" t="s">
         <v>1074</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>50</v>
@@ -7712,15 +7712,15 @@
     </row>
     <row r="369" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B369" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B370" t="s">
         <v>52</v>
@@ -7728,23 +7728,23 @@
     </row>
     <row r="371" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B372" s="3" t="s">
         <v>1076</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>81</v>
@@ -7752,39 +7752,39 @@
     </row>
     <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B374" s="3" t="s">
         <v>1078</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B377" s="3" t="s">
         <v>1080</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>81</v>
@@ -7792,23 +7792,23 @@
     </row>
     <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B379" s="3" t="s">
         <v>1082</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B380" s="3" t="s">
         <v>1084</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>4</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="382" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B382" t="s">
         <v>164</v>
@@ -7824,55 +7824,55 @@
     </row>
     <row r="383" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B385" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B386" s="3" t="s">
         <v>1087</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B387" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>3</v>
@@ -7880,39 +7880,39 @@
     </row>
     <row r="390" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B391" s="3" t="s">
         <v>1089</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B393" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>14</v>
@@ -7920,23 +7920,23 @@
     </row>
     <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B395" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B396" s="3" t="s">
         <v>1092</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>137</v>
@@ -7944,15 +7944,15 @@
     </row>
     <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B398" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>136</v>
@@ -7960,31 +7960,31 @@
     </row>
     <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B401" s="3" t="s">
         <v>1094</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>98</v>
@@ -7992,47 +7992,47 @@
     </row>
     <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B406" s="3" t="s">
         <v>1096</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B407" s="3" t="s">
         <v>1098</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B408" s="3" t="s">
         <v>1100</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>125</v>
@@ -8040,7 +8040,7 @@
     </row>
     <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>96</v>
@@ -8048,15 +8048,15 @@
     </row>
     <row r="411" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B411" s="3" t="s">
         <v>1102</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>114</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>96</v>
@@ -8072,15 +8072,15 @@
     </row>
     <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B414" t="s">
         <v>1104</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>136</v>
@@ -8088,39 +8088,39 @@
     </row>
     <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B416" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="B416" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>98</v>
@@ -8128,15 +8128,15 @@
     </row>
     <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B421" s="3" t="s">
         <v>1106</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>26</v>
@@ -8144,23 +8144,23 @@
     </row>
     <row r="423" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B423" s="3" t="s">
         <v>1108</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>18</v>
@@ -8168,79 +8168,79 @@
     </row>
     <row r="426" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B426" s="3" t="s">
         <v>1111</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B427" s="3" t="s">
         <v>1113</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B430" s="3" t="s">
         <v>1115</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B433" s="3" t="s">
         <v>1117</v>
-      </c>
-      <c r="B433" s="3" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B434" s="3" t="s">
         <v>1119</v>
-      </c>
-      <c r="B434" s="3" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>140</v>
@@ -8248,15 +8248,15 @@
     </row>
     <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B436" s="3" t="s">
         <v>1121</v>
-      </c>
-      <c r="B436" s="3" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>21</v>
@@ -8264,31 +8264,31 @@
     </row>
     <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B440" s="3" t="s">
         <v>1123</v>
-      </c>
-      <c r="B440" s="3" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>44</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="442" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>0</v>
@@ -8304,23 +8304,23 @@
     </row>
     <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>112</v>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="446" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>14</v>
@@ -8336,15 +8336,15 @@
     </row>
     <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>41</v>
@@ -8352,23 +8352,23 @@
     </row>
     <row r="449" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B449" s="3" t="s">
         <v>1125</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B450" t="s">
         <v>1127</v>
-      </c>
-      <c r="B450" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>24</v>
@@ -8376,7 +8376,7 @@
     </row>
     <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>50</v>
@@ -8384,87 +8384,87 @@
     </row>
     <row r="453" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B454" t="s">
         <v>1130</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B455" s="3" t="s">
         <v>1132</v>
-      </c>
-      <c r="B455" s="3" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B457" t="s">
         <v>1134</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B459" s="3" t="s">
         <v>1136</v>
-      </c>
-      <c r="B459" s="3" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>1138</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B461" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B462" t="s">
         <v>1140</v>
-      </c>
-      <c r="B462" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>24</v>
@@ -8472,15 +8472,15 @@
     </row>
     <row r="464" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B464" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>153</v>
@@ -8488,7 +8488,7 @@
     </row>
     <row r="466" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B466" t="s">
         <v>67</v>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="467" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>151</v>
@@ -8504,15 +8504,15 @@
     </row>
     <row r="468" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>58</v>
@@ -8520,15 +8520,15 @@
     </row>
     <row r="470" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B470" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>178</v>
@@ -8536,15 +8536,15 @@
     </row>
     <row r="472" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>17</v>
@@ -8552,15 +8552,15 @@
     </row>
     <row r="474" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B474" s="3" t="s">
         <v>1143</v>
-      </c>
-      <c r="B474" s="3" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>122</v>
@@ -8568,7 +8568,7 @@
     </row>
     <row r="476" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>123</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="477" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>23</v>
@@ -8584,15 +8584,15 @@
     </row>
     <row r="478" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>98</v>
@@ -8600,15 +8600,15 @@
     </row>
     <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>166</v>
@@ -8616,31 +8616,31 @@
     </row>
     <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B483" s="3" t="s">
         <v>1147</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B484" s="3" t="s">
         <v>1149</v>
-      </c>
-      <c r="B484" s="3" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B485" t="s">
         <v>111</v>
@@ -8648,31 +8648,31 @@
     </row>
     <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B486" s="3" t="s">
         <v>1151</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B487" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>27</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="490" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>11</v>
@@ -8688,23 +8688,23 @@
     </row>
     <row r="491" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>35</v>
@@ -8712,103 +8712,103 @@
     </row>
     <row r="494" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B500" s="3" t="s">
         <v>1155</v>
-      </c>
-      <c r="B500" s="3" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B505" s="3" t="s">
         <v>1157</v>
-      </c>
-      <c r="B505" s="3" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>149</v>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="507" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>139</v>
@@ -8824,15 +8824,15 @@
     </row>
     <row r="508" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>81</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="510" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>108</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="511" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>54</v>
@@ -8856,15 +8856,15 @@
     </row>
     <row r="512" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B512" s="3" t="s">
         <v>1159</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>112</v>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="514" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>165</v>
@@ -8880,7 +8880,7 @@
     </row>
     <row r="515" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>28</v>
@@ -8888,15 +8888,15 @@
     </row>
     <row r="516" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>169</v>
@@ -8904,63 +8904,63 @@
     </row>
     <row r="518" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>59</v>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>99</v>
@@ -8976,31 +8976,31 @@
     </row>
     <row r="527" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B527" s="3" t="s">
         <v>1161</v>
-      </c>
-      <c r="B527" s="3" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B529" s="3" t="s">
         <v>1163</v>
-      </c>
-      <c r="B529" s="3" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>151</v>
@@ -9008,23 +9008,23 @@
     </row>
     <row r="531" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B531" s="3" t="s">
         <v>1165</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>74</v>
@@ -9032,31 +9032,31 @@
     </row>
     <row r="534" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B534" s="3" t="s">
         <v>1167</v>
-      </c>
-      <c r="B534" s="3" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B535" s="3" t="s">
         <v>1169</v>
-      </c>
-      <c r="B535" s="3" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>113</v>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="538" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>18</v>
@@ -9072,159 +9072,159 @@
     </row>
     <row r="539" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B540" s="3" t="s">
         <v>1171</v>
-      </c>
-      <c r="B540" s="3" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B543" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B551" s="3" t="s">
         <v>1181</v>
-      </c>
-      <c r="B551" s="3" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B554" s="3" t="s">
         <v>1184</v>
-      </c>
-      <c r="B554" s="3" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B555" s="3" t="s">
         <v>1186</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B556" s="3" t="s">
         <v>1188</v>
-      </c>
-      <c r="B556" s="3" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>3</v>
@@ -9232,31 +9232,31 @@
     </row>
     <row r="559" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B559" s="3" t="s">
         <v>1190</v>
-      </c>
-      <c r="B559" s="3" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>126</v>
@@ -9264,47 +9264,47 @@
     </row>
     <row r="563" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B563" s="3" t="s">
         <v>1193</v>
-      </c>
-      <c r="B563" s="3" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B566" s="3" t="s">
         <v>1195</v>
-      </c>
-      <c r="B566" s="3" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>82</v>
@@ -9312,31 +9312,31 @@
     </row>
     <row r="569" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B570" s="3" t="s">
         <v>1199</v>
-      </c>
-      <c r="B570" s="3" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>70</v>
@@ -9344,7 +9344,7 @@
     </row>
     <row r="573" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>25</v>
@@ -9352,23 +9352,23 @@
     </row>
     <row r="574" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B574" s="3" t="s">
         <v>1201</v>
-      </c>
-      <c r="B574" s="3" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>25</v>
@@ -9376,7 +9376,7 @@
     </row>
     <row r="577" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B577" t="s">
         <v>165</v>
@@ -9384,39 +9384,39 @@
     </row>
     <row r="578" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B578" s="3" t="s">
         <v>1203</v>
-      </c>
-      <c r="B578" s="3" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B579" s="3" t="s">
         <v>1205</v>
-      </c>
-      <c r="B579" s="3" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B581" s="3" t="s">
         <v>1208</v>
-      </c>
-      <c r="B581" s="3" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>121</v>
@@ -9424,15 +9424,15 @@
     </row>
     <row r="583" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>59</v>
@@ -9440,15 +9440,15 @@
     </row>
     <row r="585" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>40</v>
@@ -9456,63 +9456,63 @@
     </row>
     <row r="587" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B587" s="3" t="s">
         <v>1212</v>
-      </c>
-      <c r="B587" s="3" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B588" s="3" t="s">
         <v>1214</v>
-      </c>
-      <c r="B588" s="3" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B591" s="3" t="s">
         <v>1216</v>
-      </c>
-      <c r="B591" s="3" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B594" t="s">
         <v>32</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="595" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B595" t="s">
         <v>24</v>
@@ -9528,15 +9528,15 @@
     </row>
     <row r="596" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B596" t="s">
         <v>1218</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B597" t="s">
         <v>172</v>
@@ -9544,15 +9544,15 @@
     </row>
     <row r="598" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B598" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B599" t="s">
         <v>140</v>
@@ -9560,23 +9560,23 @@
     </row>
     <row r="600" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B600" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B601" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B602" t="s">
         <v>64</v>
@@ -9584,31 +9584,31 @@
     </row>
     <row r="603" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B603" t="s">
         <v>1222</v>
-      </c>
-      <c r="B603" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B604" t="s">
         <v>1224</v>
-      </c>
-      <c r="B604" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B605" t="s">
         <v>1226</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B606" t="s">
         <v>28</v>
@@ -9616,47 +9616,47 @@
     </row>
     <row r="607" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B607" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B608" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B609" t="s">
         <v>1228</v>
-      </c>
-      <c r="B609" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B610" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B611" t="s">
         <v>1230</v>
-      </c>
-      <c r="B611" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B612" t="s">
         <v>65</v>
@@ -9664,55 +9664,55 @@
     </row>
     <row r="613" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B613" t="s">
         <v>1232</v>
-      </c>
-      <c r="B613" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A614" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B614" t="s">
         <v>1234</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B615" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B616" t="s">
         <v>1237</v>
-      </c>
-      <c r="B616" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B617" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B618" t="s">
         <v>1239</v>
-      </c>
-      <c r="B618" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B619" t="s">
         <v>151</v>
@@ -9720,151 +9720,151 @@
     </row>
     <row r="620" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A620" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B620" t="s">
         <v>1241</v>
-      </c>
-      <c r="B620" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B621" t="s">
         <v>1243</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A622" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B622" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B623" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A624" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B624" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B625" t="s">
         <v>1247</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A626" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B626" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B627" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A628" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B628" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B629" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A630" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B630" t="s">
         <v>1251</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="631" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B631" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="632" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A632" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B632" t="s">
         <v>1254</v>
-      </c>
-      <c r="B632" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="633" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A633" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B633" t="s">
         <v>1256</v>
-      </c>
-      <c r="B633" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A634" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B634" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A635" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B635" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A636" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B636" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="637" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A637" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B637" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A638" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B638" t="s">
         <v>176</v>
@@ -9872,23 +9872,23 @@
     </row>
     <row r="639" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A639" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B639" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A640" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B640" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="641" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B641" t="s">
         <v>25</v>
@@ -9896,7 +9896,7 @@
     </row>
     <row r="642" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A642" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B642" t="s">
         <v>3</v>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="643" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A643" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B643" t="s">
         <v>3</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="644" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B644" t="s">
         <v>98</v>
@@ -9920,7 +9920,7 @@
     </row>
     <row r="645" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B645" t="s">
         <v>151</v>
@@ -9928,7 +9928,7 @@
     </row>
     <row r="646" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B646" t="s">
         <v>78</v>
@@ -9936,7 +9936,7 @@
     </row>
     <row r="647" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B647" t="s">
         <v>122</v>
@@ -9944,47 +9944,47 @@
     </row>
     <row r="648" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B648" t="s">
         <v>1263</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="649" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B649" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B650" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B651" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B652" t="s">
         <v>1266</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B653" t="s">
         <v>99</v>
@@ -9992,7 +9992,7 @@
     </row>
     <row r="654" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A654" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B654" t="s">
         <v>151</v>
@@ -10000,79 +10000,79 @@
     </row>
     <row r="655" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B655" t="s">
         <v>1268</v>
-      </c>
-      <c r="B655" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="656" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A656" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B656" t="s">
         <v>1270</v>
-      </c>
-      <c r="B656" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="657" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A657" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B657" t="s">
         <v>1272</v>
-      </c>
-      <c r="B657" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B658" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B659" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="660" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B660" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="661" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A661" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B661" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="662" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A662" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B662" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="663" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A663" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B663" t="s">
         <v>1276</v>
-      </c>
-      <c r="B663" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="664" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A664" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B664" t="s">
         <v>91</v>
@@ -10080,15 +10080,15 @@
     </row>
     <row r="665" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A665" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B665" t="s">
         <v>1278</v>
-      </c>
-      <c r="B665" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="666" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A666" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B666" t="s">
         <v>178</v>
@@ -10096,23 +10096,23 @@
     </row>
     <row r="667" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A667" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B667" t="s">
         <v>1280</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A668" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B668" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="669" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A669" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B669" t="s">
         <v>91</v>
@@ -10120,55 +10120,55 @@
     </row>
     <row r="670" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A670" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B670" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="671" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A671" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B671" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A672" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B672" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="673" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B673" t="s">
         <v>1284</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="674" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A674" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B674" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A675" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B675" t="s">
         <v>1287</v>
-      </c>
-      <c r="B675" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A676" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B676" t="s">
         <v>58</v>
@@ -10176,23 +10176,23 @@
     </row>
     <row r="677" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A677" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B677" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A678" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B678" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A679" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B679" t="s">
         <v>15</v>
@@ -10200,15 +10200,15 @@
     </row>
     <row r="680" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B680" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="681" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A681" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B681" t="s">
         <v>29</v>
@@ -10216,7 +10216,7 @@
     </row>
     <row r="682" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B682" t="s">
         <v>110</v>
@@ -10224,15 +10224,15 @@
     </row>
     <row r="683" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A683" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B683" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A684" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B684" t="s">
         <v>180</v>
@@ -10240,55 +10240,55 @@
     </row>
     <row r="685" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A685" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B685" t="s">
         <v>1293</v>
-      </c>
-      <c r="B685" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A686" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B686" t="s">
         <v>1295</v>
-      </c>
-      <c r="B686" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A687" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B687" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A688" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B688" t="s">
         <v>1298</v>
-      </c>
-      <c r="B688" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="689" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A689" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B689" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="690" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A690" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B690" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A691" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B691" t="s">
         <v>101</v>
@@ -10296,55 +10296,55 @@
     </row>
     <row r="692" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A692" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B692" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="693" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A693" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B693" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="694" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A694" s="3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B694" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A695" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B695" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A696" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B696" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A697" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B697" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A698" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B698" t="s">
         <v>59</v>
@@ -10352,7 +10352,7 @@
     </row>
     <row r="699" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A699" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B699" t="s">
         <v>101</v>
@@ -10360,31 +10360,31 @@
     </row>
     <row r="700" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A700" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B700" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="701" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A701" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B701" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A702" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B702" t="s">
         <v>1306</v>
-      </c>
-      <c r="B702" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="703" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A703" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B703" t="s">
         <v>180</v>
@@ -10392,39 +10392,39 @@
     </row>
     <row r="704" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A704" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B704" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B705" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A706" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B706" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A707" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B707" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A708" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B708" t="s">
         <v>101</v>
@@ -10432,63 +10432,63 @@
     </row>
     <row r="709" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A709" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B709" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A710" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B710" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A711" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B711" t="s">
         <v>1313</v>
-      </c>
-      <c r="B711" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="712" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A712" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B712" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A713" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B713" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A714" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B714" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A715" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B715" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A716" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B716" t="s">
         <v>49</v>
@@ -10496,111 +10496,111 @@
     </row>
     <row r="717" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A717" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B717" t="s">
         <v>1317</v>
-      </c>
-      <c r="B717" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A718" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B718" t="s">
         <v>1319</v>
-      </c>
-      <c r="B718" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A719" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B719" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A720" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B720" t="s">
         <v>1321</v>
-      </c>
-      <c r="B720" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="721" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A721" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B721" t="s">
         <v>1323</v>
-      </c>
-      <c r="B721" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="722" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A722" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B722" t="s">
         <v>1325</v>
-      </c>
-      <c r="B722" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="723" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A723" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B723" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="724" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A724" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B724" t="s">
         <v>1328</v>
-      </c>
-      <c r="B724" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="725" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A725" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B725" t="s">
         <v>1330</v>
-      </c>
-      <c r="B725" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A726" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B726" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A727" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B727" t="s">
         <v>1333</v>
-      </c>
-      <c r="B727" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="728" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A728" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B728" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="729" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A729" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B729" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="730" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A730" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B730" t="s">
         <v>182</v>
@@ -10608,55 +10608,55 @@
     </row>
     <row r="731" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A731" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B731" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="732" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A732" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B732" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="733" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A733" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B733" t="s">
         <v>1337</v>
-      </c>
-      <c r="B733" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="734" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A734" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B734" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="735" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A735" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B735" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="736" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A736" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B736" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="737" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A737" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B737" t="s">
         <v>101</v>
@@ -10664,79 +10664,79 @@
     </row>
     <row r="738" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A738" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B738" t="s">
         <v>1341</v>
-      </c>
-      <c r="B738" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="739" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A739" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B739" t="s">
         <v>1343</v>
-      </c>
-      <c r="B739" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="740" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A740" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B740" t="s">
         <v>1345</v>
-      </c>
-      <c r="B740" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="741" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A741" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B741" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="742" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A742" s="3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B742" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="743" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A743" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B743" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="744" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A744" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B744" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="745" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A745" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B745" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="746" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A746" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B746" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="747" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A747" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B747" t="s">
         <v>101</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="748" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A748" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B748" t="s">
         <v>102</v>
@@ -10752,119 +10752,119 @@
     </row>
     <row r="749" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A749" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B749" t="s">
         <v>1351</v>
-      </c>
-      <c r="B749" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A750" s="3" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B750" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="751" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A751" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B751" t="s">
         <v>1354</v>
-      </c>
-      <c r="B751" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="752" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A752" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B752" t="s">
         <v>1356</v>
-      </c>
-      <c r="B752" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="753" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A753" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B753" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A754" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B754" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A755" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B755" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A756" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B756" t="s">
         <v>697</v>
-      </c>
-      <c r="B756" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="757" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A757" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B757" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="758" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A758" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B758" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="759" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A759" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B759" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="760" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A760" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B760" t="s">
         <v>1359</v>
-      </c>
-      <c r="B760" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="761" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A761" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B761" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="762" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A762" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B762" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="763" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A763" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B763" t="s">
         <v>59</v>
@@ -10872,15 +10872,15 @@
     </row>
     <row r="764" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A764" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B764" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="765" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A765" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B765" t="s">
         <v>180</v>
@@ -10888,23 +10888,23 @@
     </row>
     <row r="766" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A766" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B766" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="767" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A767" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B767" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="768" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A768" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B768" t="s">
         <v>25</v>
@@ -10912,47 +10912,47 @@
     </row>
     <row r="769" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A769" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B769" t="s">
         <v>1365</v>
-      </c>
-      <c r="B769" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="770" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A770" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B770" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="771" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A771" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B771" t="s">
         <v>1367</v>
-      </c>
-      <c r="B771" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A772" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B772" t="s">
         <v>1369</v>
-      </c>
-      <c r="B772" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="773" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A773" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B773" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="774" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A774" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B774" t="s">
         <v>83</v>
@@ -10960,31 +10960,31 @@
     </row>
     <row r="775" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A775" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B775" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="776" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A776" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B776" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="777" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A777" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B777" t="s">
         <v>1372</v>
-      </c>
-      <c r="B777" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="778" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A778" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B778" t="s">
         <v>13</v>
@@ -10992,7 +10992,7 @@
     </row>
     <row r="779" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A779" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B779" t="s">
         <v>119</v>
@@ -11000,7 +11000,7 @@
     </row>
     <row r="780" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A780" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B780" t="s">
         <v>6</v>
@@ -11008,71 +11008,71 @@
     </row>
     <row r="781" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A781" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B781" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="782" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A782" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B782" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="783" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A783" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B783" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="784" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A784" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B784" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="785" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A785" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B785" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="786" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A786" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B786" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="787" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A787" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B787" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="788" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A788" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B788" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="789" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A789" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B789" t="s">
         <v>83</v>
@@ -11080,7 +11080,7 @@
     </row>
     <row r="790" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A790" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B790" t="s">
         <v>101</v>
@@ -11088,7 +11088,7 @@
     </row>
     <row r="791" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A791" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B791" t="s">
         <v>1</v>
@@ -11096,7 +11096,7 @@
     </row>
     <row r="792" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A792" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B792" t="s">
         <v>77</v>
@@ -11104,39 +11104,39 @@
     </row>
     <row r="793" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A793" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B793" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="794" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A794" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B794" t="s">
         <v>1378</v>
-      </c>
-      <c r="B794" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="795" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A795" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B795" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A796" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B796" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="797" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A797" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B797" t="s">
         <v>24</v>
@@ -11144,15 +11144,15 @@
     </row>
     <row r="798" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A798" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B798" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="799" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A799" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B799" t="s">
         <v>91</v>
@@ -11160,7 +11160,7 @@
     </row>
     <row r="800" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A800" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B800" t="s">
         <v>75</v>
@@ -11168,7 +11168,7 @@
     </row>
     <row r="801" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A801" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B801" t="s">
         <v>29</v>
@@ -11176,23 +11176,23 @@
     </row>
     <row r="802" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A802" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B802" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="803" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A803" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B803" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="804" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A804" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B804" t="s">
         <v>5</v>
@@ -11200,23 +11200,23 @@
     </row>
     <row r="805" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A805" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B805" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="806" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A806" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B806" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="807" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A807" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B807" t="s">
         <v>166</v>
@@ -11224,7 +11224,7 @@
     </row>
     <row r="808" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A808" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B808" t="s">
         <v>77</v>
@@ -11232,15 +11232,15 @@
     </row>
     <row r="809" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A809" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B809" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="810" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A810" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B810" t="s">
         <v>34</v>
@@ -11248,7 +11248,7 @@
     </row>
     <row r="811" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A811" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B811" t="s">
         <v>8</v>
@@ -11256,15 +11256,15 @@
     </row>
     <row r="812" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A812" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B812" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="813" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A813" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B813" t="s">
         <v>26</v>
@@ -11272,15 +11272,15 @@
     </row>
     <row r="814" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A814" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B814" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="815" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A815" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B815" t="s">
         <v>53</v>
@@ -11288,7 +11288,7 @@
     </row>
     <row r="816" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A816" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B816" t="s">
         <v>129</v>
@@ -11296,7 +11296,7 @@
     </row>
     <row r="817" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A817" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B817" t="s">
         <v>87</v>
@@ -11304,7 +11304,7 @@
     </row>
     <row r="818" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A818" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B818" t="s">
         <v>78</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="819" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A819" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B819" t="s">
         <v>55</v>
@@ -11320,7 +11320,7 @@
     </row>
     <row r="820" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A820" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B820" t="s">
         <v>22</v>
@@ -11328,15 +11328,15 @@
     </row>
     <row r="821" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A821" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B821" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="822" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A822" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B822" t="s">
         <v>152</v>
@@ -11344,47 +11344,47 @@
     </row>
     <row r="823" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A823" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B823" t="s">
         <v>1384</v>
-      </c>
-      <c r="B823" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="824" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A824" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B824" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="825" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A825" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B825" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="826" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A826" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B826" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="827" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A827" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B827" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="828" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A828" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B828" t="s">
         <v>98</v>
@@ -11392,7 +11392,7 @@
     </row>
     <row r="829" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A829" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B829" t="s">
         <v>20</v>
@@ -11400,31 +11400,31 @@
     </row>
     <row r="830" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A830" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B830" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="831" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A831" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B831" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="832" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A832" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B832" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="833" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A833" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B833" t="s">
         <v>19</v>
@@ -11432,15 +11432,15 @@
     </row>
     <row r="834" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A834" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B834" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="835" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A835" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B835" t="s">
         <v>181</v>
@@ -11448,23 +11448,23 @@
     </row>
     <row r="836" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A836" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B836" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="837" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A837" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B837" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="838" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A838" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B838" t="s">
         <v>132</v>
@@ -11472,23 +11472,23 @@
     </row>
     <row r="839" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A839" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B839" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="840" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A840" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B840" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="841" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A841" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B841" t="s">
         <v>70</v>
@@ -11496,7 +11496,7 @@
     </row>
     <row r="842" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A842" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B842" t="s">
         <v>177</v>
@@ -11504,23 +11504,23 @@
     </row>
     <row r="843" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A843" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B843" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="844" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A844" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B844" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="845" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A845" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B845" t="s">
         <v>10</v>
@@ -11528,7 +11528,7 @@
     </row>
     <row r="846" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A846" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B846" t="s">
         <v>73</v>
@@ -11536,23 +11536,23 @@
     </row>
     <row r="847" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A847" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B847" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="848" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A848" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B848" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="849" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A849" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B849" t="s">
         <v>171</v>
@@ -11560,15 +11560,15 @@
     </row>
     <row r="850" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A850" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B850" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="851" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A851" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B851" t="s">
         <v>19</v>
@@ -11576,7 +11576,7 @@
     </row>
     <row r="852" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A852" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B852" t="s">
         <v>39</v>
@@ -11584,31 +11584,31 @@
     </row>
     <row r="853" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A853" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B853" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="854" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A854" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B854" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="855" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A855" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B855" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="856" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A856" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B856" t="s">
         <v>2</v>
@@ -11616,7 +11616,7 @@
     </row>
     <row r="857" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A857" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B857" t="s">
         <v>62</v>
@@ -11624,15 +11624,15 @@
     </row>
     <row r="858" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A858" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B858" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="859" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A859" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B859" t="s">
         <v>91</v>
@@ -11640,7 +11640,7 @@
     </row>
     <row r="860" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A860" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B860" t="s">
         <v>182</v>
@@ -11648,15 +11648,15 @@
     </row>
     <row r="861" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A861" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B861" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="862" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A862" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B862" t="s">
         <v>81</v>
@@ -11664,23 +11664,23 @@
     </row>
     <row r="863" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A863" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B863" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="864" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A864" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B864" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="865" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A865" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B865" t="s">
         <v>86</v>
@@ -11688,7 +11688,7 @@
     </row>
     <row r="866" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A866" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B866" t="s">
         <v>25</v>
@@ -11696,15 +11696,15 @@
     </row>
     <row r="867" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A867" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B867" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="868" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A868" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B868" t="s">
         <v>21</v>
@@ -11712,7 +11712,7 @@
     </row>
     <row r="869" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A869" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B869" t="s">
         <v>3</v>
@@ -11720,47 +11720,47 @@
     </row>
     <row r="870" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A870" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B870" t="s">
         <v>1396</v>
-      </c>
-      <c r="B870" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="871" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A871" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B871" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="872" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A872" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B872" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="873" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A873" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B873" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="874" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A874" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B874" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="875" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A875" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B875" t="s">
         <v>14</v>
@@ -11768,15 +11768,15 @@
     </row>
     <row r="876" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A876" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B876" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="877" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A877" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B877" t="s">
         <v>86</v>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="878" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A878" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B878" t="s">
         <v>4</v>
@@ -11792,23 +11792,23 @@
     </row>
     <row r="879" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A879" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B879" t="s">
         <v>1399</v>
-      </c>
-      <c r="B879" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="880" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A880" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B880" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="881" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A881" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B881" t="s">
         <v>11</v>
@@ -11816,15 +11816,15 @@
     </row>
     <row r="882" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A882" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B882" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="883" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A883" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B883" t="s">
         <v>30</v>
@@ -11832,23 +11832,23 @@
     </row>
     <row r="884" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A884" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B884" t="s">
         <v>1401</v>
-      </c>
-      <c r="B884" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="885" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A885" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B885" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="886" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A886" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B886" t="s">
         <v>86</v>
@@ -11856,47 +11856,47 @@
     </row>
     <row r="887" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A887" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B887" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="888" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A888" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B888" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="889" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A889" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B889" t="s">
         <v>1406</v>
-      </c>
-      <c r="B889" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="890" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A890" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B890" t="s">
         <v>1408</v>
-      </c>
-      <c r="B890" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="891" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A891" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B891" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="892" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A892" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B892" t="s">
         <v>56</v>
@@ -11904,87 +11904,87 @@
     </row>
     <row r="893" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A893" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B893" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="894" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A894" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B894" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="895" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A895" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B895" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="896" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A896" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B896" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="897" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A897" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B897" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="898" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A898" s="3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B898" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="899" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A899" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B899" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="900" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A900" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B900" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="901" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A901" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B901" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="902" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A902" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B902" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="903" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A903" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B903" t="s">
         <v>123</v>
@@ -11992,7 +11992,7 @@
     </row>
     <row r="904" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A904" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B904" t="s">
         <v>168</v>
@@ -12000,39 +12000,39 @@
     </row>
     <row r="905" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A905" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B905" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="906" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A906" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B906" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="907" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A907" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B907" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="908" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A908" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B908" t="s">
         <v>1415</v>
-      </c>
-      <c r="B908" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="909" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A909" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B909" t="s">
         <v>173</v>
@@ -12040,7 +12040,7 @@
     </row>
     <row r="910" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A910" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B910" t="s">
         <v>176</v>
@@ -12048,7 +12048,7 @@
     </row>
     <row r="911" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A911" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B911" t="s">
         <v>36</v>
@@ -12056,39 +12056,39 @@
     </row>
     <row r="912" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A912" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B912" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="913" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A913" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B913" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="914" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A914" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B914" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="915" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A915" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B915" t="s">
         <v>1417</v>
-      </c>
-      <c r="B915" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="916" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A916" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B916" t="s">
         <v>147</v>
@@ -12096,23 +12096,23 @@
     </row>
     <row r="917" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A917" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B917" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="918" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A918" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B918" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="919" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A919" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B919" t="s">
         <v>180</v>
@@ -12120,31 +12120,31 @@
     </row>
     <row r="920" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A920" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B920" t="s">
         <v>1420</v>
-      </c>
-      <c r="B920" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="921" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A921" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B921" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="922" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A922" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B922" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="923" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A923" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B923" t="s">
         <v>118</v>
@@ -12152,111 +12152,111 @@
     </row>
     <row r="924" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A924" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B924" t="s">
         <v>1422</v>
-      </c>
-      <c r="B924" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="925" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A925" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B925" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="926" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A926" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B926" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="927" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A927" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B927" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="928" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A928" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B928" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="929" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A929" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B929" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="930" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A930" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B930" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="931" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A931" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B931" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="932" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A932" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B932" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="933" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A933" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B933" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="934" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A934" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B934" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="935" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A935" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B935" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="936" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A936" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B936" t="s">
         <v>1429</v>
-      </c>
-      <c r="B936" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="937" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A937" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B937" t="s">
         <v>124</v>
@@ -12264,63 +12264,63 @@
     </row>
     <row r="938" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A938" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B938" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="939" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A939" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B939" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="940" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A940" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B940" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="941" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A941" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B941" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="942" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A942" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B942" t="s">
         <v>1435</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="943" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A943" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B943" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="944" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A944" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B944" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="945" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A945" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B945" t="s">
         <v>0</v>
@@ -12328,79 +12328,79 @@
     </row>
     <row r="946" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A946" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B946" t="s">
         <v>1440</v>
-      </c>
-      <c r="B946" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="947" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A947" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B947" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="948" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A948" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B948" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="949" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A949" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B949" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="950" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A950" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B950" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="951" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A951" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B951" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="952" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A952" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B952" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="953" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A953" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B953" t="s">
         <v>1449</v>
-      </c>
-      <c r="B953" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="954" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A954" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B954" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="955" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A955" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B955" t="s">
         <v>59</v>
@@ -12408,7 +12408,7 @@
     </row>
     <row r="956" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A956" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B956" t="s">
         <v>59</v>
@@ -12416,15 +12416,15 @@
     </row>
     <row r="957" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A957" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B957" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="958" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A958" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B958" t="s">
         <v>137</v>
@@ -12432,39 +12432,39 @@
     </row>
     <row r="959" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A959" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B959" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="960" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A960" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B960" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="961" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A961" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B961" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="962" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A962" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B962" t="s">
-        <v>183</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B963" t="s">
         <v>85</v>
@@ -12472,7 +12472,7 @@
     </row>
     <row r="964" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A964" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B964" t="s">
         <v>0</v>
